--- a/results/MSE_LinearRegression.xlsx
+++ b/results/MSE_LinearRegression.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vaishali Chanana\SBU\545 Big Data\Project\BD_HealthMap\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SBU\Fall2017\BigData\Project\Git\US_HealthMap\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="2" xr2:uid="{2830318D-99B4-4F32-B109-8649A35B8A55}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9050" activeTab="4" xr2:uid="{2830318D-99B4-4F32-B109-8649A35B8A55}"/>
   </bookViews>
   <sheets>
     <sheet name="MSE" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Year</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>San Juan County</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Ypred</t>
   </si>
 </sst>
 </file>
@@ -1586,6 +1592,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Linear</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Regression with SGD for Chronic Diseases - Barrow County</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1624,6 +1660,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Actual</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1634,11 +1673,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$39</c:f>
+              <c:f>Sheet1!$B$28:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1686,7 +1737,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$27:$C$39</c:f>
+              <c:f>Sheet1!$C$28:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1723,13 +1774,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-251C-483C-A22B-5F7C8FC26A64}"/>
+              <c16:uniqueId val="{00000000-B8E3-4083-B1C2-AA8809A48D1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1740,11 +1794,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$27:$B$39</c:f>
+              <c:f>Sheet1!$B$28:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1792,7 +1858,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$27:$D$39</c:f>
+              <c:f>Sheet1!$D$28:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1841,7 +1907,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-251C-483C-A22B-5F7C8FC26A64}"/>
+              <c16:uniqueId val="{00000001-B8E3-4083-B1C2-AA8809A48D1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1853,17 +1919,73 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1676765200"/>
-        <c:axId val="1678767904"/>
+        <c:axId val="702324976"/>
+        <c:axId val="702326288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1676765200"/>
+        <c:axId val="702324976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1901,7 +2023,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1678767904"/>
+        <c:crossAx val="702326288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1909,7 +2031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1678767904"/>
+        <c:axId val="702326288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1929,6 +2051,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Mortality Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1960,7 +2137,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676765200"/>
+        <c:crossAx val="702324976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2005,13 +2182,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3756,7 +3926,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3864,11 +4034,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -3879,11 +4044,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -3915,9 +4075,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4393,23 +4550,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>517525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>60325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B28B7CF-7F5D-44D9-B117-D342359F8525}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5273DD72-0851-4B27-87C3-57D2ED511414}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4733,12 +4890,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4749,7 +4906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2006</v>
       </c>
@@ -4760,7 +4917,7 @@
         <v>97.172275339699993</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2007</v>
       </c>
@@ -4771,7 +4928,7 @@
         <v>107.91223348600001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2008</v>
       </c>
@@ -4782,7 +4939,7 @@
         <v>111.578849421</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2009</v>
       </c>
@@ -4793,7 +4950,7 @@
         <v>109.84512592</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2010</v>
       </c>
@@ -4804,7 +4961,7 @@
         <v>121.214278303</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -4815,7 +4972,7 @@
         <v>105.40851085600001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -4826,7 +4983,7 @@
         <v>99.892497836299995</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -4837,7 +4994,7 @@
         <v>92.156603103400002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -4861,9 +5018,9 @@
       <selection activeCell="G1" activeCellId="1" sqref="F1:F1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>2006</v>
       </c>
@@ -4880,7 +5037,7 @@
         <v>266.86595948500002</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -4897,7 +5054,7 @@
         <v>266.54637812200002</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -4914,7 +5071,7 @@
         <v>266.16703875500002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -4931,7 +5088,7 @@
         <v>265.50742205400002</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -4948,7 +5105,7 @@
         <v>264.75069165899998</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -4965,7 +5122,7 @@
         <v>263.88599097100001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -4982,7 +5139,7 @@
         <v>263.22519627600002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -4999,7 +5156,7 @@
         <v>262.27123816699998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -5027,18 +5184,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B66E68-3C30-4236-9368-C6EEFFB2B9AC}">
   <dimension ref="A1:I710"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G1" t="s">
         <v>8</v>
       </c>
@@ -5049,7 +5206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5063,7 +5220,7 @@
         <v>56.661373357199999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5086,7 +5243,7 @@
         <v>48.7945894466</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>8.1000000000000004E-6</v>
       </c>
@@ -5109,7 +5266,7 @@
         <v>61.594965000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -5132,7 +5289,7 @@
         <v>75.419784023600002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>3.0000000000000001E-6</v>
       </c>
@@ -5155,7 +5312,7 @@
         <v>55.083379581400003</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5.0000000000000004E-6</v>
       </c>
@@ -5178,7 +5335,7 @@
         <v>39.544167833499998</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6.0000000000000002E-6</v>
       </c>
@@ -5201,7 +5358,7 @@
         <v>88.700179875499998</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1E-4</v>
       </c>
@@ -5224,7 +5381,7 @@
         <v>54.720342553400002</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -5247,7 +5404,7 @@
         <v>36.6632257049</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1.1E-4</v>
       </c>
@@ -5270,7 +5427,7 @@
         <v>36.6632257049</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>1.2E-4</v>
       </c>
@@ -5293,7 +5450,7 @@
         <v>81.913577368700004</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>1.4999999999999999E-4</v>
       </c>
@@ -5316,7 +5473,7 @@
         <v>46.002755967699997</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>1.7000000000000001E-4</v>
       </c>
@@ -5339,7 +5496,7 @@
         <v>67.927024671300003</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>1.9000000000000001E-4</v>
       </c>
@@ -5362,7 +5519,7 @@
         <v>43.897099514600001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>1.8000000000000001E-4</v>
       </c>
@@ -5385,7 +5542,7 @@
         <v>51.063102753499997</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>1.85E-4</v>
       </c>
@@ -5408,7 +5565,7 @@
         <v>50.097884334699998</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>1.83E-4</v>
       </c>
@@ -5431,7 +5588,7 @@
         <v>61.532371249100002</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>1.85E-4</v>
       </c>
@@ -5454,7 +5611,7 @@
         <v>52.327297255799998</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>1.85E-4</v>
       </c>
@@ -5477,7 +5634,7 @@
         <v>48.836392805199999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G21">
         <v>98.043369290000001</v>
       </c>
@@ -5488,7 +5645,7 @@
         <v>98.099471375999997</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G22">
         <v>57.92818716</v>
       </c>
@@ -5499,7 +5656,7 @@
         <v>61.594965000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G23">
         <v>44.937327830000001</v>
       </c>
@@ -5510,7 +5667,7 @@
         <v>47.480821618699999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G24">
         <v>51.931591900000001</v>
       </c>
@@ -5521,7 +5678,7 @@
         <v>53.767049423700001</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G25">
         <v>69.633804749999996</v>
       </c>
@@ -5532,7 +5689,7 @@
         <v>71.110115075600007</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G26">
         <v>76.378294879999999</v>
       </c>
@@ -5543,7 +5700,7 @@
         <v>77.762932324000005</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G27">
         <v>61.732860520000003</v>
       </c>
@@ -5554,7 +5711,7 @@
         <v>64.106111385999995</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G28">
         <v>75.620596289999995</v>
       </c>
@@ -5565,7 +5722,7 @@
         <v>77.133885727999996</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G29">
         <v>116.4396193</v>
       </c>
@@ -5576,7 +5733,7 @@
         <v>120.30751146999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G30">
         <v>52.007658380000002</v>
       </c>
@@ -5587,7 +5744,7 @@
         <v>52.683580020599997</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G31">
         <v>81.794259319999995</v>
       </c>
@@ -5598,7 +5755,7 @@
         <v>83.511375270900004</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="G32">
         <v>61.839912579999996</v>
       </c>
@@ -5609,7 +5766,7 @@
         <v>63.5740571527</v>
       </c>
     </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G33">
         <v>89.509831680000005</v>
       </c>
@@ -5620,7 +5777,7 @@
         <v>89.968707731600006</v>
       </c>
     </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G34">
         <v>97.069377750000001</v>
       </c>
@@ -5631,7 +5788,7 @@
         <v>100.39265219000001</v>
       </c>
     </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G35">
         <v>54.278578809999999</v>
       </c>
@@ -5642,7 +5799,7 @@
         <v>56.463701410600002</v>
       </c>
     </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G36">
         <v>70.408186270000002</v>
       </c>
@@ -5653,7 +5810,7 @@
         <v>70.718994192300002</v>
       </c>
     </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G37">
         <v>65.327275709999995</v>
       </c>
@@ -5664,7 +5821,7 @@
         <v>68.442326372400004</v>
       </c>
     </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G38">
         <v>70.50380294</v>
       </c>
@@ -5675,7 +5832,7 @@
         <v>71.423809793700002</v>
       </c>
     </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G39">
         <v>69.817351740000007</v>
       </c>
@@ -5686,7 +5843,7 @@
         <v>71.841500603200004</v>
       </c>
     </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G40">
         <v>95.963684439999994</v>
       </c>
@@ -5697,7 +5854,7 @@
         <v>95.932165340799997</v>
       </c>
     </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G41">
         <v>74.167847640000005</v>
       </c>
@@ -5708,7 +5865,7 @@
         <v>76.628276416700004</v>
       </c>
     </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G42">
         <v>59.559735510000003</v>
       </c>
@@ -5719,7 +5876,7 @@
         <v>60.510942143999998</v>
       </c>
     </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G43">
         <v>80.794354159999997</v>
       </c>
@@ -5730,7 +5887,7 @@
         <v>83.947854488199994</v>
       </c>
     </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G44">
         <v>66.593143670000003</v>
       </c>
@@ -5741,7 +5898,7 @@
         <v>68.264019391900007</v>
       </c>
     </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G45">
         <v>79.484647659999993</v>
       </c>
@@ -5752,7 +5909,7 @@
         <v>80.436795935099994</v>
       </c>
     </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G46">
         <v>60.052197360000001</v>
       </c>
@@ -5763,7 +5920,7 @@
         <v>62.477276457499997</v>
       </c>
     </row>
-    <row r="47" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G47">
         <v>87.537841299999997</v>
       </c>
@@ -5774,7 +5931,7 @@
         <v>88.286092486200005</v>
       </c>
     </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G48">
         <v>80.365902930000004</v>
       </c>
@@ -5785,7 +5942,7 @@
         <v>84.994946711500006</v>
       </c>
     </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G49">
         <v>126.7461921</v>
       </c>
@@ -5796,7 +5953,7 @@
         <v>128.64844962199999</v>
       </c>
     </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G50">
         <v>53.325881369999998</v>
       </c>
@@ -5807,7 +5964,7 @@
         <v>53.4080235116</v>
       </c>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G51">
         <v>107.8881504</v>
       </c>
@@ -5818,7 +5975,7 @@
         <v>108.840677645</v>
       </c>
     </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G52">
         <v>77.790756529999996</v>
       </c>
@@ -5829,7 +5986,7 @@
         <v>81.205353398599996</v>
       </c>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G53">
         <v>84.493974080000001</v>
       </c>
@@ -5840,7 +5997,7 @@
         <v>85.419638161699993</v>
       </c>
     </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G54">
         <v>58.802667679999999</v>
       </c>
@@ -5851,7 +6008,7 @@
         <v>61.360972708699997</v>
       </c>
     </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G55">
         <v>65.376362130000004</v>
       </c>
@@ -5862,7 +6019,7 @@
         <v>67.326566850800006</v>
       </c>
     </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G56">
         <v>75.042996909999999</v>
       </c>
@@ -5873,7 +6030,7 @@
         <v>76.401939864699997</v>
       </c>
     </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G57">
         <v>36.492437940000002</v>
       </c>
@@ -5884,7 +6041,7 @@
         <v>39.239841147699998</v>
       </c>
     </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G58">
         <v>95.576015889999994</v>
       </c>
@@ -5895,7 +6052,7 @@
         <v>95.055241206399998</v>
       </c>
     </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G59">
         <v>87.051220779999994</v>
       </c>
@@ -5906,7 +6063,7 @@
         <v>86.626239065500002</v>
       </c>
     </row>
-    <row r="60" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G60">
         <v>50.98067897</v>
       </c>
@@ -5917,7 +6074,7 @@
         <v>52.239180509500002</v>
       </c>
     </row>
-    <row r="61" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G61">
         <v>52.483864740000001</v>
       </c>
@@ -5928,7 +6085,7 @@
         <v>54.801940387899997</v>
       </c>
     </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G62">
         <v>50.016149769999998</v>
       </c>
@@ -5939,7 +6096,7 @@
         <v>54.023004538000002</v>
       </c>
     </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G63">
         <v>63.74666963</v>
       </c>
@@ -5950,7 +6107,7 @@
         <v>65.311250752199996</v>
       </c>
     </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G64">
         <v>62.681683749999998</v>
       </c>
@@ -5961,7 +6118,7 @@
         <v>64.574834174399996</v>
       </c>
     </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G65">
         <v>57.92818716</v>
       </c>
@@ -5972,7 +6129,7 @@
         <v>61.594965000000002</v>
       </c>
     </row>
-    <row r="66" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G66">
         <v>59.329087119999997</v>
       </c>
@@ -5983,7 +6140,7 @@
         <v>63.076221278600002</v>
       </c>
     </row>
-    <row r="67" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G67">
         <v>68.533768309999999</v>
       </c>
@@ -5994,7 +6151,7 @@
         <v>69.431474927699995</v>
       </c>
     </row>
-    <row r="68" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G68">
         <v>76.84436049</v>
       </c>
@@ -6005,7 +6162,7 @@
         <v>79.3745211799</v>
       </c>
     </row>
-    <row r="69" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G69">
         <v>54.945335669999999</v>
       </c>
@@ -6016,7 +6173,7 @@
         <v>56.5405072609</v>
       </c>
     </row>
-    <row r="70" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G70">
         <v>114.61486789999999</v>
       </c>
@@ -6027,7 +6184,7 @@
         <v>118.64867596400001</v>
       </c>
     </row>
-    <row r="71" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G71">
         <v>37.80756822</v>
       </c>
@@ -6038,7 +6195,7 @@
         <v>39.427217415400001</v>
       </c>
     </row>
-    <row r="72" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G72">
         <v>57.15804833</v>
       </c>
@@ -6049,7 +6206,7 @@
         <v>56.841621301099998</v>
       </c>
     </row>
-    <row r="73" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G73">
         <v>58.791576409999998</v>
       </c>
@@ -6060,7 +6217,7 @@
         <v>70.023499235700001</v>
       </c>
     </row>
-    <row r="74" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G74">
         <v>68.036462139999998</v>
       </c>
@@ -6071,7 +6228,7 @@
         <v>70.351146409699993</v>
       </c>
     </row>
-    <row r="75" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G75">
         <v>57.92818716</v>
       </c>
@@ -6082,7 +6239,7 @@
         <v>61.594965000000002</v>
       </c>
     </row>
-    <row r="76" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G76">
         <v>39.767644390000001</v>
       </c>
@@ -6093,7 +6250,7 @@
         <v>42.234210993799998</v>
       </c>
     </row>
-    <row r="77" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G77">
         <v>62.374223010000001</v>
       </c>
@@ -6104,7 +6261,7 @@
         <v>63.600380038899999</v>
       </c>
     </row>
-    <row r="78" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G78">
         <v>97.402845749999997</v>
       </c>
@@ -6115,7 +6272,7 @@
         <v>97.859480928099998</v>
       </c>
     </row>
-    <row r="79" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G79">
         <v>56.525143040000003</v>
       </c>
@@ -6126,7 +6283,7 @@
         <v>57.313651615799998</v>
       </c>
     </row>
-    <row r="80" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G80">
         <v>50.987245110000003</v>
       </c>
@@ -6137,7 +6294,7 @@
         <v>52.889893965100001</v>
       </c>
     </row>
-    <row r="81" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G81">
         <v>68.10122543</v>
       </c>
@@ -6148,7 +6305,7 @@
         <v>71.297476877500003</v>
       </c>
     </row>
-    <row r="82" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G82">
         <v>51.491805319999997</v>
       </c>
@@ -6159,7 +6316,7 @@
         <v>55.525343950699998</v>
       </c>
     </row>
-    <row r="83" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G83">
         <v>53.342534360000002</v>
       </c>
@@ -6170,7 +6327,7 @@
         <v>54.432118153300003</v>
       </c>
     </row>
-    <row r="84" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G84">
         <v>68.748226860000003</v>
       </c>
@@ -6181,7 +6338,7 @@
         <v>69.744128642000007</v>
       </c>
     </row>
-    <row r="85" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G85">
         <v>75.08567343</v>
       </c>
@@ -6192,7 +6349,7 @@
         <v>75.966696661200004</v>
       </c>
     </row>
-    <row r="86" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G86">
         <v>64.863785800000002</v>
       </c>
@@ -6203,7 +6360,7 @@
         <v>69.923551908600004</v>
       </c>
     </row>
-    <row r="87" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G87">
         <v>89.333039499999998</v>
       </c>
@@ -6214,7 +6371,7 @@
         <v>90.944981261699994</v>
       </c>
     </row>
-    <row r="88" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G88">
         <v>49.624121940000002</v>
       </c>
@@ -6225,7 +6382,7 @@
         <v>53.093408382699998</v>
       </c>
     </row>
-    <row r="89" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G89">
         <v>87.321551940000006</v>
       </c>
@@ -6236,7 +6393,7 @@
         <v>87.192555386999999</v>
       </c>
     </row>
-    <row r="90" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G90">
         <v>41.936937659999998</v>
       </c>
@@ -6247,7 +6404,7 @@
         <v>46.106778804800001</v>
       </c>
     </row>
-    <row r="91" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G91">
         <v>45.308779440000002</v>
       </c>
@@ -6258,7 +6415,7 @@
         <v>48.877571431600003</v>
       </c>
     </row>
-    <row r="92" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G92">
         <v>72.519759300000004</v>
       </c>
@@ -6269,7 +6426,7 @@
         <v>76.111066239300001</v>
       </c>
     </row>
-    <row r="93" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G93">
         <v>80.982163279999995</v>
       </c>
@@ -6280,7 +6437,7 @@
         <v>81.058435475300001</v>
       </c>
     </row>
-    <row r="94" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G94">
         <v>63.20657156</v>
       </c>
@@ -6291,7 +6448,7 @@
         <v>65.8403071348</v>
       </c>
     </row>
-    <row r="95" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G95">
         <v>59.804937870000003</v>
       </c>
@@ -6302,7 +6459,7 @@
         <v>61.898027906300001</v>
       </c>
     </row>
-    <row r="96" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G96">
         <v>57.916894139999997</v>
       </c>
@@ -6313,7 +6470,7 @@
         <v>59.216951864099997</v>
       </c>
     </row>
-    <row r="97" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G97">
         <v>75.659266939999995</v>
       </c>
@@ -6324,7 +6481,7 @@
         <v>77.2749301164</v>
       </c>
     </row>
-    <row r="98" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G98">
         <v>60.982734710000003</v>
       </c>
@@ -6335,7 +6492,7 @@
         <v>63.606732141400002</v>
       </c>
     </row>
-    <row r="99" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G99">
         <v>74.657723970000006</v>
       </c>
@@ -6346,7 +6503,7 @@
         <v>76.201322373599993</v>
       </c>
     </row>
-    <row r="100" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G100">
         <v>45.100850690000001</v>
       </c>
@@ -6357,7 +6514,7 @@
         <v>46.078537799000003</v>
       </c>
     </row>
-    <row r="101" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G101">
         <v>55.538284930000003</v>
       </c>
@@ -6368,7 +6525,7 @@
         <v>56.867329961300001</v>
       </c>
     </row>
-    <row r="102" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G102">
         <v>46.993628280000003</v>
       </c>
@@ -6379,7 +6536,7 @@
         <v>50.927770518400003</v>
       </c>
     </row>
-    <row r="103" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G103">
         <v>84.000031629999995</v>
       </c>
@@ -6390,7 +6547,7 @@
         <v>83.675708117100001</v>
       </c>
     </row>
-    <row r="104" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G104">
         <v>51.24197891</v>
       </c>
@@ -6401,7 +6558,7 @@
         <v>52.9046806984</v>
       </c>
     </row>
-    <row r="105" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G105">
         <v>46.675307920000002</v>
       </c>
@@ -6412,7 +6569,7 @@
         <v>48.610300995499998</v>
       </c>
     </row>
-    <row r="106" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G106">
         <v>87.671741179999998</v>
       </c>
@@ -6423,7 +6580,7 @@
         <v>88.926721182700007</v>
       </c>
     </row>
-    <row r="107" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G107">
         <v>62.326065229999998</v>
       </c>
@@ -6434,7 +6591,7 @@
         <v>63.951279998300002</v>
       </c>
     </row>
-    <row r="108" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G108">
         <v>55.59828134</v>
       </c>
@@ -6445,7 +6602,7 @@
         <v>59.620635630700001</v>
       </c>
     </row>
-    <row r="109" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G109">
         <v>70.853167569999997</v>
       </c>
@@ -6456,7 +6613,7 @@
         <v>72.223769033500005</v>
       </c>
     </row>
-    <row r="110" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G110">
         <v>84.933237410000004</v>
       </c>
@@ -6467,7 +6624,7 @@
         <v>85.801949134200001</v>
       </c>
     </row>
-    <row r="111" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G111">
         <v>58.36425182</v>
       </c>
@@ -6478,7 +6635,7 @@
         <v>60.049347232599999</v>
       </c>
     </row>
-    <row r="112" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G112">
         <v>93.041789489999999</v>
       </c>
@@ -6489,7 +6646,7 @@
         <v>91.758962103299993</v>
       </c>
     </row>
-    <row r="113" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G113">
         <v>85.135348699999994</v>
       </c>
@@ -6500,7 +6657,7 @@
         <v>88.470078871699997</v>
       </c>
     </row>
-    <row r="114" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G114">
         <v>48.660513309999999</v>
       </c>
@@ -6511,7 +6668,7 @@
         <v>50.430944437699999</v>
       </c>
     </row>
-    <row r="115" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G115">
         <v>57.513284149999997</v>
       </c>
@@ -6522,7 +6679,7 @@
         <v>59.363170072700001</v>
       </c>
     </row>
-    <row r="116" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G116">
         <v>88.024361870000007</v>
       </c>
@@ -6533,7 +6690,7 @@
         <v>89.406286032699995</v>
       </c>
     </row>
-    <row r="117" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G117">
         <v>60.188550769999999</v>
       </c>
@@ -6544,7 +6701,7 @@
         <v>61.386860709600001</v>
       </c>
     </row>
-    <row r="118" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G118">
         <v>54.515595990000001</v>
       </c>
@@ -6555,7 +6712,7 @@
         <v>57.949227535799999</v>
       </c>
     </row>
-    <row r="119" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G119">
         <v>74.779044290000002</v>
       </c>
@@ -6566,7 +6723,7 @@
         <v>72.722033502000002</v>
       </c>
     </row>
-    <row r="120" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G120">
         <v>62.402301680000001</v>
       </c>
@@ -6577,7 +6734,7 @@
         <v>64.743992653999996</v>
       </c>
     </row>
-    <row r="121" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G121">
         <v>69.295277310000003</v>
       </c>
@@ -6588,7 +6745,7 @@
         <v>71.330399205600003</v>
       </c>
     </row>
-    <row r="122" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G122">
         <v>76.284961640000006</v>
       </c>
@@ -6599,7 +6756,7 @@
         <v>77.605308443499993</v>
       </c>
     </row>
-    <row r="123" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G123">
         <v>57.619878489999998</v>
       </c>
@@ -6610,7 +6767,7 @@
         <v>64.260125249599994</v>
       </c>
     </row>
-    <row r="124" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G124">
         <v>48.821529740000003</v>
       </c>
@@ -6621,7 +6778,7 @@
         <v>52.925244138700002</v>
       </c>
     </row>
-    <row r="125" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G125">
         <v>69.499763060000006</v>
       </c>
@@ -6632,7 +6789,7 @@
         <v>73.024481442400003</v>
       </c>
     </row>
-    <row r="126" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G126">
         <v>92.843422989999993</v>
       </c>
@@ -6643,7 +6800,7 @@
         <v>91.109848300699994</v>
       </c>
     </row>
-    <row r="127" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G127">
         <v>72.469743820000005</v>
       </c>
@@ -6654,7 +6811,7 @@
         <v>77.932077577100003</v>
       </c>
     </row>
-    <row r="128" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G128">
         <v>87.583727039999999</v>
       </c>
@@ -6665,7 +6822,7 @@
         <v>90.621228556600002</v>
       </c>
     </row>
-    <row r="129" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G129">
         <v>48.880941780000001</v>
       </c>
@@ -6676,7 +6833,7 @@
         <v>50.596264646800002</v>
       </c>
     </row>
-    <row r="130" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G130">
         <v>63.633941559999997</v>
       </c>
@@ -6687,7 +6844,7 @@
         <v>65.652609999000006</v>
       </c>
     </row>
-    <row r="131" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G131">
         <v>46.801779289999999</v>
       </c>
@@ -6698,7 +6855,7 @@
         <v>51.543399666600003</v>
       </c>
     </row>
-    <row r="132" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G132">
         <v>49.225183440000002</v>
       </c>
@@ -6709,7 +6866,7 @@
         <v>52.306632485599998</v>
       </c>
     </row>
-    <row r="133" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G133">
         <v>46.491640330000003</v>
       </c>
@@ -6720,7 +6877,7 @@
         <v>49.338822114999999</v>
       </c>
     </row>
-    <row r="134" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G134">
         <v>79.42384079</v>
       </c>
@@ -6731,7 +6888,7 @@
         <v>81.673979362099999</v>
       </c>
     </row>
-    <row r="135" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G135">
         <v>67.147228150000004</v>
       </c>
@@ -6742,7 +6899,7 @@
         <v>69.117236977199994</v>
       </c>
     </row>
-    <row r="136" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G136">
         <v>80.431169740000001</v>
       </c>
@@ -6753,7 +6910,7 @@
         <v>81.1419990009</v>
       </c>
     </row>
-    <row r="137" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G137">
         <v>75.939241809999999</v>
       </c>
@@ -6764,7 +6921,7 @@
         <v>78.806084165000001</v>
       </c>
     </row>
-    <row r="138" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G138">
         <v>30.131712879999998</v>
       </c>
@@ -6775,7 +6932,7 @@
         <v>32.606494876200003</v>
       </c>
     </row>
-    <row r="139" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G139">
         <v>58.286807160000002</v>
       </c>
@@ -6786,7 +6943,7 @@
         <v>61.760508325099998</v>
       </c>
     </row>
-    <row r="140" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G140">
         <v>83.351940490000004</v>
       </c>
@@ -6797,7 +6954,7 @@
         <v>83.8423274126</v>
       </c>
     </row>
-    <row r="141" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G141">
         <v>68.114740740000002</v>
       </c>
@@ -6808,7 +6965,7 @@
         <v>68.657262211000003</v>
       </c>
     </row>
-    <row r="142" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G142">
         <v>55.275965730000003</v>
       </c>
@@ -6819,7 +6976,7 @@
         <v>59.204433790700001</v>
       </c>
     </row>
-    <row r="143" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G143">
         <v>59.60886447</v>
       </c>
@@ -6830,7 +6987,7 @@
         <v>61.793744143399998</v>
       </c>
     </row>
-    <row r="144" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G144">
         <v>76.404307099999997</v>
       </c>
@@ -6841,7 +6998,7 @@
         <v>74.663827280000007</v>
       </c>
     </row>
-    <row r="145" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G145">
         <v>60.361230689999999</v>
       </c>
@@ -6852,7 +7009,7 @@
         <v>64.624081548299998</v>
       </c>
     </row>
-    <row r="146" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G146">
         <v>43.868116440000001</v>
       </c>
@@ -6863,7 +7020,7 @@
         <v>46.085451524299998</v>
       </c>
     </row>
-    <row r="147" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G147">
         <v>40.336570709999997</v>
       </c>
@@ -6874,7 +7031,7 @@
         <v>44.879971348200002</v>
       </c>
     </row>
-    <row r="148" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G148">
         <v>64.446672620000001</v>
       </c>
@@ -6885,7 +7042,7 @@
         <v>66.605523457900006</v>
       </c>
     </row>
-    <row r="149" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G149">
         <v>93.038905040000003</v>
       </c>
@@ -6896,7 +7053,7 @@
         <v>93.805151125799995</v>
       </c>
     </row>
-    <row r="150" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G150">
         <v>78.665718990000002</v>
       </c>
@@ -6907,7 +7064,7 @@
         <v>78.774652005299998</v>
       </c>
     </row>
-    <row r="151" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G151">
         <v>44.635183849999997</v>
       </c>
@@ -6918,7 +7075,7 @@
         <v>45.6916418916</v>
       </c>
     </row>
-    <row r="152" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G152">
         <v>74.469355250000007</v>
       </c>
@@ -6929,7 +7086,7 @@
         <v>75.176754561799996</v>
       </c>
     </row>
-    <row r="153" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G153">
         <v>68.547546690000004</v>
       </c>
@@ -6940,7 +7097,7 @@
         <v>70.937942951699995</v>
       </c>
     </row>
-    <row r="154" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G154">
         <v>74.846992180000001</v>
       </c>
@@ -6951,7 +7108,7 @@
         <v>75.425041735999997</v>
       </c>
     </row>
-    <row r="155" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G155">
         <v>79.350937160000001</v>
       </c>
@@ -6962,7 +7119,7 @@
         <v>80.581955500899994</v>
       </c>
     </row>
-    <row r="156" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G156">
         <v>78.262278390000006</v>
       </c>
@@ -6973,7 +7130,7 @@
         <v>79.254396379699998</v>
       </c>
     </row>
-    <row r="157" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G157">
         <v>107.9114362</v>
       </c>
@@ -6984,7 +7141,7 @@
         <v>107.08723713099999</v>
       </c>
     </row>
-    <row r="158" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G158">
         <v>63.724150450000003</v>
       </c>
@@ -6995,7 +7152,7 @@
         <v>66.691071745900004</v>
       </c>
     </row>
-    <row r="159" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G159">
         <v>80.988948780000001</v>
       </c>
@@ -7006,7 +7163,7 @@
         <v>80.673522047199995</v>
       </c>
     </row>
-    <row r="160" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G160">
         <v>94.298148900000001</v>
       </c>
@@ -7017,7 +7174,7 @@
         <v>92.227803635000001</v>
       </c>
     </row>
-    <row r="161" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G161">
         <v>112.53249700000001</v>
       </c>
@@ -7028,7 +7185,7 @@
         <v>116.434930314</v>
       </c>
     </row>
-    <row r="162" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G162">
         <v>89.778044039999997</v>
       </c>
@@ -7039,7 +7196,7 @@
         <v>90.448936999099999</v>
       </c>
     </row>
-    <row r="163" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G163">
         <v>66.297446910000005</v>
       </c>
@@ -7050,7 +7207,7 @@
         <v>67.493348456299998</v>
       </c>
     </row>
-    <row r="164" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G164">
         <v>44.29871473</v>
       </c>
@@ -7061,7 +7218,7 @@
         <v>47.708725897900003</v>
       </c>
     </row>
-    <row r="165" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G165">
         <v>76.019694729999998</v>
       </c>
@@ -7072,7 +7229,7 @@
         <v>77.508677993500001</v>
       </c>
     </row>
-    <row r="166" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G166">
         <v>84.854512409999998</v>
       </c>
@@ -7083,7 +7240,7 @@
         <v>87.934691542600007</v>
       </c>
     </row>
-    <row r="167" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G167">
         <v>65.590201269999994</v>
       </c>
@@ -7094,7 +7251,7 @@
         <v>67.785063263699996</v>
       </c>
     </row>
-    <row r="168" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G168">
         <v>65.645681980000006</v>
       </c>
@@ -7105,7 +7262,7 @@
         <v>67.802175624399993</v>
       </c>
     </row>
-    <row r="169" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G169">
         <v>48.908043919999997</v>
       </c>
@@ -7116,7 +7273,7 @@
         <v>50.3634585673</v>
       </c>
     </row>
-    <row r="170" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G170">
         <v>59.87417928</v>
       </c>
@@ -7127,7 +7284,7 @@
         <v>63.9497302989</v>
       </c>
     </row>
-    <row r="171" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G171">
         <v>68.912293070000004</v>
       </c>
@@ -7138,7 +7295,7 @@
         <v>70.814712761699994</v>
       </c>
     </row>
-    <row r="172" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G172">
         <v>101.8281667</v>
       </c>
@@ -7149,7 +7306,7 @@
         <v>100.22914517</v>
       </c>
     </row>
-    <row r="173" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G173">
         <v>49.676338940000001</v>
       </c>
@@ -7160,7 +7317,7 @@
         <v>52.404683684799998</v>
       </c>
     </row>
-    <row r="174" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G174">
         <v>66.247307259999999</v>
       </c>
@@ -7171,7 +7328,7 @@
         <v>69.030663009099996</v>
       </c>
     </row>
-    <row r="175" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G175">
         <v>75.66686799</v>
       </c>
@@ -7182,7 +7339,7 @@
         <v>76.722383809700005</v>
       </c>
     </row>
-    <row r="176" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G176">
         <v>75.023068230000007</v>
       </c>
@@ -7193,7 +7350,7 @@
         <v>78.3008775192</v>
       </c>
     </row>
-    <row r="177" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G177">
         <v>51.72204859</v>
       </c>
@@ -7204,7 +7361,7 @@
         <v>54.834118149299997</v>
       </c>
     </row>
-    <row r="178" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G178">
         <v>84.005853380000005</v>
       </c>
@@ -7215,7 +7372,7 @@
         <v>86.662096318099998</v>
       </c>
     </row>
-    <row r="179" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G179">
         <v>60.610119169999997</v>
       </c>
@@ -7226,7 +7383,7 @@
         <v>64.448334821700001</v>
       </c>
     </row>
-    <row r="180" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G180">
         <v>61.129277170000002</v>
       </c>
@@ -7237,7 +7394,7 @@
         <v>63.205804261200001</v>
       </c>
     </row>
-    <row r="181" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G181">
         <v>57.92818716</v>
       </c>
@@ -7248,7 +7405,7 @@
         <v>61.594965000000002</v>
       </c>
     </row>
-    <row r="182" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G182">
         <v>62.023549510000002</v>
       </c>
@@ -7259,7 +7416,7 @@
         <v>63.186106217899997</v>
       </c>
     </row>
-    <row r="183" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G183">
         <v>50.52613633</v>
       </c>
@@ -7270,7 +7427,7 @@
         <v>52.294513617600003</v>
       </c>
     </row>
-    <row r="184" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G184">
         <v>43.996435689999998</v>
       </c>
@@ -7281,7 +7438,7 @@
         <v>45.552136853699999</v>
       </c>
     </row>
-    <row r="185" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G185">
         <v>71.153960699999999</v>
       </c>
@@ -7292,7 +7449,7 @@
         <v>75.1641280897</v>
       </c>
     </row>
-    <row r="186" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G186">
         <v>30.21330828</v>
       </c>
@@ -7303,7 +7460,7 @@
         <v>32.670177836999997</v>
       </c>
     </row>
-    <row r="187" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G187">
         <v>86.507914650000004</v>
       </c>
@@ -7314,7 +7471,7 @@
         <v>86.171260173999997</v>
       </c>
     </row>
-    <row r="188" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G188">
         <v>84.378579689999995</v>
       </c>
@@ -7325,7 +7482,7 @@
         <v>87.244924350000005</v>
       </c>
     </row>
-    <row r="189" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G189">
         <v>74.394241649999998</v>
       </c>
@@ -7336,7 +7493,7 @@
         <v>75.142816537800002</v>
       </c>
     </row>
-    <row r="190" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G190">
         <v>71.850666500000003</v>
       </c>
@@ -7347,7 +7504,7 @@
         <v>72.740996866200007</v>
       </c>
     </row>
-    <row r="191" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G191">
         <v>57.428675720000001</v>
       </c>
@@ -7358,7 +7515,7 @@
         <v>60.091378731100001</v>
       </c>
     </row>
-    <row r="192" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G192">
         <v>66.834206249999994</v>
       </c>
@@ -7369,7 +7526,7 @@
         <v>69.290469401500005</v>
       </c>
     </row>
-    <row r="193" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G193">
         <v>35.905222190000003</v>
       </c>
@@ -7380,7 +7537,7 @@
         <v>38.288915555899997</v>
       </c>
     </row>
-    <row r="194" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G194">
         <v>61.21743704</v>
       </c>
@@ -7391,7 +7548,7 @@
         <v>62.7059991868</v>
       </c>
     </row>
-    <row r="195" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G195">
         <v>40.659335220000003</v>
       </c>
@@ -7402,7 +7559,7 @@
         <v>42.765743896899998</v>
       </c>
     </row>
-    <row r="196" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G196">
         <v>45.217058489999999</v>
       </c>
@@ -7413,7 +7570,7 @@
         <v>47.361406648399999</v>
       </c>
     </row>
-    <row r="197" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G197">
         <v>52.158685179999999</v>
       </c>
@@ -7424,7 +7581,7 @@
         <v>54.184344436099998</v>
       </c>
     </row>
-    <row r="198" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G198">
         <v>59.13703933</v>
       </c>
@@ -7435,7 +7592,7 @@
         <v>66.3203982518</v>
       </c>
     </row>
-    <row r="199" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G199">
         <v>24.492542409999999</v>
       </c>
@@ -7446,7 +7603,7 @@
         <v>26.361683412000001</v>
       </c>
     </row>
-    <row r="200" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G200">
         <v>58.128546319999998</v>
       </c>
@@ -7457,7 +7614,7 @@
         <v>59.795089209799997</v>
       </c>
     </row>
-    <row r="201" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G201">
         <v>81.599262420000002</v>
       </c>
@@ -7468,7 +7625,7 @@
         <v>84.253532469099994</v>
       </c>
     </row>
-    <row r="202" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G202">
         <v>84.367498960000006</v>
       </c>
@@ -7479,7 +7636,7 @@
         <v>84.779927619000006</v>
       </c>
     </row>
-    <row r="203" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G203">
         <v>62.053496979999998</v>
       </c>
@@ -7490,7 +7647,7 @@
         <v>63.991483947600003</v>
       </c>
     </row>
-    <row r="204" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G204">
         <v>78.839658159999999</v>
       </c>
@@ -7501,7 +7658,7 @@
         <v>80.065835356099996</v>
       </c>
     </row>
-    <row r="205" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G205">
         <v>46.026669429999998</v>
       </c>
@@ -7512,7 +7669,7 @@
         <v>50.303013765199999</v>
       </c>
     </row>
-    <row r="206" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G206">
         <v>58.048895369999997</v>
       </c>
@@ -7523,7 +7680,7 @@
         <v>60.872522238199998</v>
       </c>
     </row>
-    <row r="207" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G207">
         <v>53.790758480000001</v>
       </c>
@@ -7534,7 +7691,7 @@
         <v>56.703596056099997</v>
       </c>
     </row>
-    <row r="208" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G208">
         <v>55.976429289999999</v>
       </c>
@@ -7545,7 +7702,7 @@
         <v>58.719182616799998</v>
       </c>
     </row>
-    <row r="209" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G209">
         <v>61.752190339999999</v>
       </c>
@@ -7556,7 +7713,7 @@
         <v>63.659714983100002</v>
       </c>
     </row>
-    <row r="210" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G210">
         <v>61.189959960000003</v>
       </c>
@@ -7567,7 +7724,7 @@
         <v>62.649270664399999</v>
       </c>
     </row>
-    <row r="211" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G211">
         <v>56.478877410000003</v>
       </c>
@@ -7578,7 +7735,7 @@
         <v>58.006565119000001</v>
       </c>
     </row>
-    <row r="212" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G212">
         <v>91.251484849999997</v>
       </c>
@@ -7589,7 +7746,7 @@
         <v>90.295275776300002</v>
       </c>
     </row>
-    <row r="213" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G213">
         <v>87.834781789999994</v>
       </c>
@@ -7600,7 +7757,7 @@
         <v>87.986718620299996</v>
       </c>
     </row>
-    <row r="214" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G214">
         <v>47.620663309999998</v>
       </c>
@@ -7611,7 +7768,7 @@
         <v>48.492100736600001</v>
       </c>
     </row>
-    <row r="215" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G215">
         <v>67.629161139999994</v>
       </c>
@@ -7622,7 +7779,7 @@
         <v>69.182339592800005</v>
       </c>
     </row>
-    <row r="216" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G216">
         <v>97.441092089999998</v>
       </c>
@@ -7633,7 +7790,7 @@
         <v>98.553648256700001</v>
       </c>
     </row>
-    <row r="217" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G217">
         <v>75.720819999999904</v>
       </c>
@@ -7644,7 +7801,7 @@
         <v>77.256293955000004</v>
       </c>
     </row>
-    <row r="218" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G218">
         <v>54.62527944</v>
       </c>
@@ -7655,7 +7812,7 @@
         <v>56.096798550499997</v>
       </c>
     </row>
-    <row r="219" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G219">
         <v>34.147990829999998</v>
       </c>
@@ -7666,7 +7823,7 @@
         <v>36.227765406300001</v>
       </c>
     </row>
-    <row r="220" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G220">
         <v>74.881987390000006</v>
       </c>
@@ -7677,7 +7834,7 @@
         <v>76.246544028499997</v>
       </c>
     </row>
-    <row r="221" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G221">
         <v>67.914009859999993</v>
       </c>
@@ -7688,7 +7845,7 @@
         <v>68.473881771899997</v>
       </c>
     </row>
-    <row r="222" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G222">
         <v>86.0715675</v>
       </c>
@@ -7699,7 +7856,7 @@
         <v>86.237593321600002</v>
       </c>
     </row>
-    <row r="223" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G223">
         <v>54.626205769999999</v>
       </c>
@@ -7710,7 +7867,7 @@
         <v>56.0924471987</v>
       </c>
     </row>
-    <row r="224" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G224">
         <v>42.303910309999999</v>
       </c>
@@ -7721,7 +7878,7 @@
         <v>44.500370431999997</v>
       </c>
     </row>
-    <row r="225" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G225">
         <v>47.828679620000003</v>
       </c>
@@ -7732,7 +7889,7 @@
         <v>50.149701298799997</v>
       </c>
     </row>
-    <row r="226" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G226">
         <v>66.773363140000001</v>
       </c>
@@ -7743,7 +7900,7 @@
         <v>70.555731583400004</v>
       </c>
     </row>
-    <row r="227" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G227">
         <v>64.38549141</v>
       </c>
@@ -7754,7 +7911,7 @@
         <v>65.4106511743</v>
       </c>
     </row>
-    <row r="228" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G228">
         <v>51.458956190000002</v>
       </c>
@@ -7765,7 +7922,7 @@
         <v>54.514143529499997</v>
       </c>
     </row>
-    <row r="229" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G229">
         <v>81.40868055</v>
       </c>
@@ -7776,7 +7933,7 @@
         <v>83.268765493499998</v>
       </c>
     </row>
-    <row r="230" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G230">
         <v>104.32171390000001</v>
       </c>
@@ -7787,7 +7944,7 @@
         <v>103.18300499999999</v>
       </c>
     </row>
-    <row r="231" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G231">
         <v>76.406026990000001</v>
       </c>
@@ -7798,7 +7955,7 @@
         <v>79.199426781200003</v>
       </c>
     </row>
-    <row r="232" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G232">
         <v>46.218818779999999</v>
       </c>
@@ -7809,7 +7966,7 @@
         <v>50.279702614199998</v>
       </c>
     </row>
-    <row r="233" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G233">
         <v>78.669673270000004</v>
       </c>
@@ -7820,7 +7977,7 @@
         <v>78.8802445269</v>
       </c>
     </row>
-    <row r="234" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G234">
         <v>55.883809810000002</v>
       </c>
@@ -7831,7 +7988,7 @@
         <v>57.875172820300001</v>
       </c>
     </row>
-    <row r="235" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G235">
         <v>78.305077589999996</v>
       </c>
@@ -7842,7 +7999,7 @@
         <v>80.355184655399995</v>
       </c>
     </row>
-    <row r="236" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G236">
         <v>55.088523960000003</v>
       </c>
@@ -7853,7 +8010,7 @@
         <v>57.6710749119</v>
       </c>
     </row>
-    <row r="237" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G237">
         <v>76.902464710000004</v>
       </c>
@@ -7864,7 +8021,7 @@
         <v>79.213979364699995</v>
       </c>
     </row>
-    <row r="238" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G238">
         <v>64.267874500000005</v>
       </c>
@@ -7875,7 +8032,7 @@
         <v>65.821470548299999</v>
       </c>
     </row>
-    <row r="239" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G239">
         <v>66.931961360000003</v>
       </c>
@@ -7886,7 +8043,7 @@
         <v>69.439010575400005</v>
       </c>
     </row>
-    <row r="240" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G240">
         <v>78.802859350000006</v>
       </c>
@@ -7897,7 +8054,7 @@
         <v>80.384865822799995</v>
       </c>
     </row>
-    <row r="241" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G241">
         <v>61.963271489999997</v>
       </c>
@@ -7908,7 +8065,7 @@
         <v>65.050375149299995</v>
       </c>
     </row>
-    <row r="242" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G242">
         <v>66.306228329999996</v>
       </c>
@@ -7919,7 +8076,7 @@
         <v>66.989765681199998</v>
       </c>
     </row>
-    <row r="243" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G243">
         <v>69.641858659999997</v>
       </c>
@@ -7930,7 +8087,7 @@
         <v>72.187548400300003</v>
       </c>
     </row>
-    <row r="244" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G244">
         <v>74.863811920000003</v>
       </c>
@@ -7941,7 +8098,7 @@
         <v>77.104563807700004</v>
       </c>
     </row>
-    <row r="245" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G245">
         <v>64.34389376</v>
       </c>
@@ -7952,7 +8109,7 @@
         <v>66.017213686800005</v>
       </c>
     </row>
-    <row r="246" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G246">
         <v>47.060405350000003</v>
       </c>
@@ -7963,7 +8120,7 @@
         <v>47.954054945599999</v>
       </c>
     </row>
-    <row r="247" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G247">
         <v>44.1447667999999</v>
       </c>
@@ -7974,7 +8131,7 @@
         <v>46.520671772699998</v>
       </c>
     </row>
-    <row r="248" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G248">
         <v>71.660419480000002</v>
       </c>
@@ -7985,7 +8142,7 @@
         <v>70.205586299000004</v>
       </c>
     </row>
-    <row r="249" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G249">
         <v>65.659925830000006</v>
       </c>
@@ -7996,7 +8153,7 @@
         <v>69.344974020899997</v>
       </c>
     </row>
-    <row r="250" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G250">
         <v>73.665200010000007</v>
       </c>
@@ -8007,7 +8164,7 @@
         <v>77.300104187200006</v>
       </c>
     </row>
-    <row r="251" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G251">
         <v>61.045028619999997</v>
       </c>
@@ -8018,7 +8175,7 @@
         <v>63.8404318754</v>
       </c>
     </row>
-    <row r="252" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G252">
         <v>75.621368039999993</v>
       </c>
@@ -8029,7 +8186,7 @@
         <v>77.444630369099997</v>
       </c>
     </row>
-    <row r="253" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G253">
         <v>61.461238020000003</v>
       </c>
@@ -8040,7 +8197,7 @@
         <v>63.290333538600002</v>
       </c>
     </row>
-    <row r="254" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G254">
         <v>62.400945319999998</v>
       </c>
@@ -8051,7 +8208,7 @@
         <v>63.816793671699998</v>
       </c>
     </row>
-    <row r="255" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G255">
         <v>57.244120879999997</v>
       </c>
@@ -8062,7 +8219,7 @@
         <v>60.583025492499999</v>
       </c>
     </row>
-    <row r="256" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G256">
         <v>34.634097490000002</v>
       </c>
@@ -8073,7 +8230,7 @@
         <v>37.184559367200002</v>
       </c>
     </row>
-    <row r="257" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G257">
         <v>78.278943139999996</v>
       </c>
@@ -8084,7 +8241,7 @@
         <v>79.216524446999998</v>
       </c>
     </row>
-    <row r="258" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G258">
         <v>63.746870260000001</v>
       </c>
@@ -8095,7 +8252,7 @@
         <v>67.119658784500004</v>
       </c>
     </row>
-    <row r="259" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G259">
         <v>96.460213429999996</v>
       </c>
@@ -8106,7 +8263,7 @@
         <v>97.032399182099994</v>
       </c>
     </row>
-    <row r="260" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G260">
         <v>57.37615375</v>
       </c>
@@ -8117,7 +8274,7 @@
         <v>57.773991608700001</v>
       </c>
     </row>
-    <row r="261" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G261">
         <v>55.054619250000002</v>
       </c>
@@ -8128,7 +8285,7 @@
         <v>60.334280758399998</v>
       </c>
     </row>
-    <row r="262" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G262">
         <v>68.563311290000001</v>
       </c>
@@ -8139,7 +8296,7 @@
         <v>69.151500681200005</v>
       </c>
     </row>
-    <row r="263" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G263">
         <v>56.545868999999897</v>
       </c>
@@ -8150,7 +8307,7 @@
         <v>58.098822574099998</v>
       </c>
     </row>
-    <row r="264" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G264">
         <v>80.748121769999997</v>
       </c>
@@ -8161,7 +8318,7 @@
         <v>82.485588914399997</v>
       </c>
     </row>
-    <row r="265" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G265">
         <v>49.274197649999998</v>
       </c>
@@ -8172,7 +8329,7 @@
         <v>52.402788582500001</v>
       </c>
     </row>
-    <row r="266" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G266">
         <v>52.908523959999997</v>
       </c>
@@ -8183,7 +8340,7 @@
         <v>53.887872701699997</v>
       </c>
     </row>
-    <row r="267" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G267">
         <v>49.154351480000003</v>
       </c>
@@ -8194,7 +8351,7 @@
         <v>53.925987395900002</v>
       </c>
     </row>
-    <row r="268" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G268">
         <v>68.305540820000004</v>
       </c>
@@ -8205,7 +8362,7 @@
         <v>68.990055403599996</v>
       </c>
     </row>
-    <row r="269" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G269">
         <v>51.023354830000002</v>
       </c>
@@ -8216,7 +8373,7 @@
         <v>57.256200079099997</v>
       </c>
     </row>
-    <row r="270" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G270">
         <v>61.149436889999997</v>
       </c>
@@ -8227,7 +8384,7 @@
         <v>62.3435973713</v>
       </c>
     </row>
-    <row r="271" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G271">
         <v>61.366935460000001</v>
       </c>
@@ -8238,7 +8395,7 @@
         <v>63.750713918099997</v>
       </c>
     </row>
-    <row r="272" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G272">
         <v>77.501231930000003</v>
       </c>
@@ -8249,7 +8406,7 @@
         <v>80.043673681499996</v>
       </c>
     </row>
-    <row r="273" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G273">
         <v>54.461722729999998</v>
       </c>
@@ -8260,7 +8417,7 @@
         <v>56.183429325699997</v>
       </c>
     </row>
-    <row r="274" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G274">
         <v>91.881713689999998</v>
       </c>
@@ -8271,7 +8428,7 @@
         <v>90.269593237799995</v>
       </c>
     </row>
-    <row r="275" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G275">
         <v>62.69728559</v>
       </c>
@@ -8282,7 +8439,7 @@
         <v>62.794098151</v>
       </c>
     </row>
-    <row r="276" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G276">
         <v>92.325805860000003</v>
       </c>
@@ -8293,7 +8450,7 @@
         <v>92.697933956</v>
       </c>
     </row>
-    <row r="277" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G277">
         <v>70.280383020000002</v>
       </c>
@@ -8304,7 +8461,7 @@
         <v>72.791835042800002</v>
       </c>
     </row>
-    <row r="278" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G278">
         <v>51.555202280000003</v>
       </c>
@@ -8315,7 +8472,7 @@
         <v>52.757408497699998</v>
       </c>
     </row>
-    <row r="279" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G279">
         <v>73.322673599999902</v>
       </c>
@@ -8326,7 +8483,7 @@
         <v>74.543192972599996</v>
       </c>
     </row>
-    <row r="280" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G280">
         <v>67.199409509999995</v>
       </c>
@@ -8337,7 +8494,7 @@
         <v>67.556105199800001</v>
       </c>
     </row>
-    <row r="281" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G281">
         <v>44.549050690000001</v>
       </c>
@@ -8348,7 +8505,7 @@
         <v>46.417777612099997</v>
       </c>
     </row>
-    <row r="282" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G282">
         <v>49.977378350000002</v>
       </c>
@@ -8359,7 +8516,7 @@
         <v>50.60984079</v>
       </c>
     </row>
-    <row r="283" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G283">
         <v>56.95249639</v>
       </c>
@@ -8370,7 +8527,7 @@
         <v>59.534482127499999</v>
       </c>
     </row>
-    <row r="284" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G284">
         <v>27.760587189999999</v>
       </c>
@@ -8381,7 +8538,7 @@
         <v>29.436818801600001</v>
       </c>
     </row>
-    <row r="285" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G285">
         <v>31.88773007</v>
       </c>
@@ -8392,7 +8549,7 @@
         <v>34.036665771000003</v>
       </c>
     </row>
-    <row r="286" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G286">
         <v>93.256193999999994</v>
       </c>
@@ -8403,7 +8560,7 @@
         <v>92.2805977907</v>
       </c>
     </row>
-    <row r="287" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G287">
         <v>57.185944220000003</v>
       </c>
@@ -8414,7 +8571,7 @@
         <v>57.8483444162</v>
       </c>
     </row>
-    <row r="288" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G288">
         <v>61.18528886</v>
       </c>
@@ -8425,7 +8582,7 @@
         <v>61.512959076599998</v>
       </c>
     </row>
-    <row r="289" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G289">
         <v>67.139274</v>
       </c>
@@ -8436,7 +8593,7 @@
         <v>70.338811467400006</v>
       </c>
     </row>
-    <row r="290" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G290">
         <v>59.174776049999998</v>
       </c>
@@ -8447,7 +8604,7 @@
         <v>61.272087066300003</v>
       </c>
     </row>
-    <row r="291" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G291">
         <v>71.039912860000001</v>
       </c>
@@ -8458,7 +8615,7 @@
         <v>74.715518395900006</v>
       </c>
     </row>
-    <row r="292" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G292">
         <v>64.162671950000004</v>
       </c>
@@ -8469,7 +8626,7 @@
         <v>64.466416418700007</v>
       </c>
     </row>
-    <row r="293" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G293">
         <v>61.599665479999999</v>
       </c>
@@ -8480,7 +8637,7 @@
         <v>61.8921367465</v>
       </c>
     </row>
-    <row r="294" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G294">
         <v>52.951260429999998</v>
       </c>
@@ -8491,7 +8648,7 @@
         <v>55.514028535999998</v>
       </c>
     </row>
-    <row r="295" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G295">
         <v>32.978197129999998</v>
       </c>
@@ -8502,7 +8659,7 @@
         <v>37.421784266400003</v>
       </c>
     </row>
-    <row r="296" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G296">
         <v>54.14646948</v>
       </c>
@@ -8513,7 +8670,7 @@
         <v>57.152462053299999</v>
       </c>
     </row>
-    <row r="297" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G297">
         <v>101.50516090000001</v>
       </c>
@@ -8524,7 +8681,7 @@
         <v>102.759484908</v>
       </c>
     </row>
-    <row r="298" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G298">
         <v>26.203587500000001</v>
       </c>
@@ -8535,7 +8692,7 @@
         <v>27.8072707187</v>
       </c>
     </row>
-    <row r="299" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G299">
         <v>38.571713889999998</v>
       </c>
@@ -8546,7 +8703,7 @@
         <v>41.556923980699999</v>
       </c>
     </row>
-    <row r="300" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G300">
         <v>77.285194869999998</v>
       </c>
@@ -8557,7 +8714,7 @@
         <v>78.380842091100007</v>
       </c>
     </row>
-    <row r="301" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G301">
         <v>66.900978140000007</v>
       </c>
@@ -8568,7 +8725,7 @@
         <v>70.830851813300001</v>
       </c>
     </row>
-    <row r="302" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G302">
         <v>70.849900500000004</v>
       </c>
@@ -8579,7 +8736,7 @@
         <v>72.473660503000005</v>
       </c>
     </row>
-    <row r="303" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G303">
         <v>79.660484479999994</v>
       </c>
@@ -8590,7 +8747,7 @@
         <v>82.789029927100003</v>
       </c>
     </row>
-    <row r="304" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G304">
         <v>70.474255920000004</v>
       </c>
@@ -8601,7 +8758,7 @@
         <v>73.3770290163</v>
       </c>
     </row>
-    <row r="305" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G305">
         <v>79.820605259999994</v>
       </c>
@@ -8612,7 +8769,7 @@
         <v>80.979115888199999</v>
       </c>
     </row>
-    <row r="306" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G306">
         <v>53.972599090000003</v>
       </c>
@@ -8623,7 +8780,7 @@
         <v>55.029303480899998</v>
       </c>
     </row>
-    <row r="307" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G307">
         <v>58.598376000000002</v>
       </c>
@@ -8634,7 +8791,7 @@
         <v>61.542237404200002</v>
       </c>
     </row>
-    <row r="308" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G308">
         <v>57.804068989999998</v>
       </c>
@@ -8645,7 +8802,7 @@
         <v>60.648380009</v>
       </c>
     </row>
-    <row r="309" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G309">
         <v>50.37215759</v>
       </c>
@@ -8656,7 +8813,7 @@
         <v>52.176982232100002</v>
       </c>
     </row>
-    <row r="310" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G310">
         <v>32.490773169999997</v>
       </c>
@@ -8667,7 +8824,7 @@
         <v>35.229026017099997</v>
       </c>
     </row>
-    <row r="311" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G311">
         <v>70.124387249999998</v>
       </c>
@@ -8678,7 +8835,7 @@
         <v>70.175834441099994</v>
       </c>
     </row>
-    <row r="312" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G312">
         <v>41.121193060000003</v>
       </c>
@@ -8689,7 +8846,7 @@
         <v>41.249482711399999</v>
       </c>
     </row>
-    <row r="313" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G313">
         <v>69.554901169999994</v>
       </c>
@@ -8700,7 +8857,7 @@
         <v>71.698971945400004</v>
       </c>
     </row>
-    <row r="314" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G314">
         <v>58.595827329999999</v>
       </c>
@@ -8711,7 +8868,7 @@
         <v>62.6526985856</v>
       </c>
     </row>
-    <row r="315" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G315">
         <v>57.883006440000003</v>
       </c>
@@ -8722,7 +8879,7 @@
         <v>59.448394920699997</v>
       </c>
     </row>
-    <row r="316" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G316">
         <v>41.447285460000003</v>
       </c>
@@ -8733,7 +8890,7 @@
         <v>43.067226964600003</v>
       </c>
     </row>
-    <row r="317" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G317">
         <v>59.955425669999997</v>
       </c>
@@ -8744,7 +8901,7 @@
         <v>60.9410042178</v>
       </c>
     </row>
-    <row r="318" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G318">
         <v>79.275337949999994</v>
       </c>
@@ -8755,7 +8912,7 @@
         <v>78.711736010199999</v>
       </c>
     </row>
-    <row r="319" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G319">
         <v>72.612507210000004</v>
       </c>
@@ -8766,7 +8923,7 @@
         <v>72.667114379300003</v>
       </c>
     </row>
-    <row r="320" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G320">
         <v>94.687131170000001</v>
       </c>
@@ -8777,7 +8934,7 @@
         <v>93.782271743999999</v>
       </c>
     </row>
-    <row r="321" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G321">
         <v>61.372829830000001</v>
       </c>
@@ -8788,7 +8945,7 @@
         <v>62.838511337</v>
       </c>
     </row>
-    <row r="322" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G322">
         <v>71.645831959999995</v>
       </c>
@@ -8799,7 +8956,7 @@
         <v>72.597306414200006</v>
       </c>
     </row>
-    <row r="323" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G323">
         <v>98.087569970000004</v>
       </c>
@@ -8810,7 +8967,7 @@
         <v>99.972954116899999</v>
       </c>
     </row>
-    <row r="324" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G324">
         <v>59.238545520000002</v>
       </c>
@@ -8821,7 +8978,7 @@
         <v>64.879218338699999</v>
       </c>
     </row>
-    <row r="325" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G325">
         <v>83.469670719999996</v>
       </c>
@@ -8832,7 +8989,7 @@
         <v>85.045949043099995</v>
       </c>
     </row>
-    <row r="326" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G326">
         <v>101.40076929999999</v>
       </c>
@@ -8843,7 +9000,7 @@
         <v>100.603892137</v>
       </c>
     </row>
-    <row r="327" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G327">
         <v>64.295673249999993</v>
       </c>
@@ -8854,7 +9011,7 @@
         <v>68.766494915799996</v>
       </c>
     </row>
-    <row r="328" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G328">
         <v>55.05714098</v>
       </c>
@@ -8865,7 +9022,7 @@
         <v>56.952420398500003</v>
       </c>
     </row>
-    <row r="329" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G329">
         <v>60.702910269999997</v>
       </c>
@@ -8876,7 +9033,7 @@
         <v>63.030401345199998</v>
       </c>
     </row>
-    <row r="330" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G330">
         <v>44.05144997</v>
       </c>
@@ -8887,7 +9044,7 @@
         <v>45.707187987799998</v>
       </c>
     </row>
-    <row r="331" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G331">
         <v>72.843510080000001</v>
       </c>
@@ -8898,7 +9055,7 @@
         <v>73.883949270499997</v>
       </c>
     </row>
-    <row r="332" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G332">
         <v>74.297504549999999</v>
       </c>
@@ -8909,7 +9066,7 @@
         <v>76.902044254900005</v>
       </c>
     </row>
-    <row r="333" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G333">
         <v>45.013292939999999</v>
       </c>
@@ -8920,7 +9077,7 @@
         <v>47.640533581299998</v>
       </c>
     </row>
-    <row r="334" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G334">
         <v>32.05407932</v>
       </c>
@@ -8931,7 +9088,7 @@
         <v>33.868108396499998</v>
       </c>
     </row>
-    <row r="335" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G335">
         <v>43.661829570000002</v>
       </c>
@@ -8942,7 +9099,7 @@
         <v>46.306995157199999</v>
       </c>
     </row>
-    <row r="336" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G336">
         <v>59.093705059999998</v>
       </c>
@@ -8953,7 +9110,7 @@
         <v>61.807194764400002</v>
       </c>
     </row>
-    <row r="337" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G337">
         <v>63.295268270000001</v>
       </c>
@@ -8964,7 +9121,7 @@
         <v>65.539386764499994</v>
       </c>
     </row>
-    <row r="338" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G338">
         <v>28.391737429999999</v>
       </c>
@@ -8975,7 +9132,7 @@
         <v>30.455574960700002</v>
       </c>
     </row>
-    <row r="339" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G339">
         <v>76.589289590000007</v>
       </c>
@@ -8986,7 +9143,7 @@
         <v>79.951207816799993</v>
       </c>
     </row>
-    <row r="340" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G340">
         <v>51.15178221</v>
       </c>
@@ -8997,7 +9154,7 @@
         <v>55.5707625282</v>
       </c>
     </row>
-    <row r="341" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G341">
         <v>48.907298830000002</v>
       </c>
@@ -9008,7 +9165,7 @@
         <v>50.989030737599997</v>
       </c>
     </row>
-    <row r="342" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G342">
         <v>62.052071570000003</v>
       </c>
@@ -9019,7 +9176,7 @@
         <v>64.8805644495</v>
       </c>
     </row>
-    <row r="343" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G343">
         <v>54.548004059999997</v>
       </c>
@@ -9030,7 +9187,7 @@
         <v>57.167943723999997</v>
       </c>
     </row>
-    <row r="344" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G344">
         <v>72.711017029999994</v>
       </c>
@@ -9041,7 +9198,7 @@
         <v>79.428744061200007</v>
       </c>
     </row>
-    <row r="345" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G345">
         <v>55.496700660000002</v>
       </c>
@@ -9052,7 +9209,7 @@
         <v>58.546780633399997</v>
       </c>
     </row>
-    <row r="346" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G346">
         <v>55.452897540000002</v>
       </c>
@@ -9063,7 +9220,7 @@
         <v>56.530029335400002</v>
       </c>
     </row>
-    <row r="347" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G347">
         <v>57.589887300000001</v>
       </c>
@@ -9074,7 +9231,7 @@
         <v>62.655004257400002</v>
       </c>
     </row>
-    <row r="348" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G348">
         <v>94.217675369999995</v>
       </c>
@@ -9085,7 +9242,7 @@
         <v>93.202401344600005</v>
       </c>
     </row>
-    <row r="349" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G349">
         <v>78.555648300000001</v>
       </c>
@@ -9096,7 +9253,7 @@
         <v>81.618072171999998</v>
       </c>
     </row>
-    <row r="350" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G350">
         <v>84.894860089999995</v>
       </c>
@@ -9107,7 +9264,7 @@
         <v>86.595035151600001</v>
       </c>
     </row>
-    <row r="351" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G351">
         <v>50.374450260000003</v>
       </c>
@@ -9118,7 +9275,7 @@
         <v>55.715581207200003</v>
       </c>
     </row>
-    <row r="352" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G352">
         <v>58.59522552</v>
       </c>
@@ -9129,7 +9286,7 @@
         <v>62.261170401000001</v>
       </c>
     </row>
-    <row r="353" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G353">
         <v>64.911263489999996</v>
       </c>
@@ -9140,7 +9297,7 @@
         <v>66.825409687999993</v>
       </c>
     </row>
-    <row r="354" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G354">
         <v>46.473676789999999</v>
       </c>
@@ -9151,7 +9308,7 @@
         <v>47.404244191399997</v>
       </c>
     </row>
-    <row r="355" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G355">
         <v>115.90023559999899</v>
       </c>
@@ -9162,7 +9319,7 @@
         <v>123.84851180699999</v>
       </c>
     </row>
-    <row r="356" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G356">
         <v>45.078702020000001</v>
       </c>
@@ -9173,7 +9330,7 @@
         <v>48.520849347999999</v>
       </c>
     </row>
-    <row r="357" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G357">
         <v>46.874391430000003</v>
       </c>
@@ -9181,7 +9338,7 @@
         <v>50.569909557800003</v>
       </c>
     </row>
-    <row r="358" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G358">
         <v>52.986763949999997</v>
       </c>
@@ -9189,7 +9346,7 @@
         <v>54.509233696400003</v>
       </c>
     </row>
-    <row r="359" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G359">
         <v>65.041806019999996</v>
       </c>
@@ -9197,7 +9354,7 @@
         <v>67.201776747500006</v>
       </c>
     </row>
-    <row r="360" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G360">
         <v>60.101894659999999</v>
       </c>
@@ -9205,7 +9362,7 @@
         <v>60.467815219099997</v>
       </c>
     </row>
-    <row r="361" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G361">
         <v>78.517690060000007</v>
       </c>
@@ -9213,7 +9370,7 @@
         <v>78.478221894399994</v>
       </c>
     </row>
-    <row r="362" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G362">
         <v>65.223812649999999</v>
       </c>
@@ -9221,7 +9378,7 @@
         <v>65.597622427700003</v>
       </c>
     </row>
-    <row r="363" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G363">
         <v>81.479942179999995</v>
       </c>
@@ -9229,7 +9386,7 @@
         <v>87.884381624400007</v>
       </c>
     </row>
-    <row r="364" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G364">
         <v>71.153960699999999</v>
       </c>
@@ -9237,7 +9394,7 @@
         <v>76.106149170999998</v>
       </c>
     </row>
-    <row r="365" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G365">
         <v>89.168090829999997</v>
       </c>
@@ -9245,7 +9402,7 @@
         <v>86.666476098800004</v>
       </c>
     </row>
-    <row r="366" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G366">
         <v>80.583906429999999</v>
       </c>
@@ -9253,7 +9410,7 @@
         <v>83.483607846599995</v>
       </c>
     </row>
-    <row r="367" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G367">
         <v>85.540113460000001</v>
       </c>
@@ -9261,7 +9418,7 @@
         <v>88.345043070100004</v>
       </c>
     </row>
-    <row r="368" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="7:9" x14ac:dyDescent="0.35">
       <c r="G368">
         <v>45.19357883</v>
       </c>
@@ -9269,7 +9426,7 @@
         <v>48.461922796000003</v>
       </c>
     </row>
-    <row r="369" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G369">
         <v>57.772653220000002</v>
       </c>
@@ -9277,7 +9434,7 @@
         <v>58.2211152697</v>
       </c>
     </row>
-    <row r="370" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G370">
         <v>64.908064780000004</v>
       </c>
@@ -9285,7 +9442,7 @@
         <v>70.407120974600005</v>
       </c>
     </row>
-    <row r="371" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G371">
         <v>47.689286180000003</v>
       </c>
@@ -9293,7 +9450,7 @@
         <v>51.581375408699998</v>
       </c>
     </row>
-    <row r="372" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G372">
         <v>75.937964190000002</v>
       </c>
@@ -9301,7 +9458,7 @@
         <v>75.934042687900003</v>
       </c>
     </row>
-    <row r="373" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G373">
         <v>77.861260150000007</v>
       </c>
@@ -9309,7 +9466,7 @@
         <v>79.802026804400001</v>
       </c>
     </row>
-    <row r="374" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G374">
         <v>92.360709299999996</v>
       </c>
@@ -9317,7 +9474,7 @@
         <v>90.286084674400001</v>
       </c>
     </row>
-    <row r="375" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G375">
         <v>63.506798240000002</v>
       </c>
@@ -9325,7 +9482,7 @@
         <v>66.812912153300005</v>
       </c>
     </row>
-    <row r="376" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G376">
         <v>74.447758620000002</v>
       </c>
@@ -9333,7 +9490,7 @@
         <v>71.584337695200006</v>
       </c>
     </row>
-    <row r="377" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G377">
         <v>65.391155510000004</v>
       </c>
@@ -9341,7 +9498,7 @@
         <v>68.678220653300002</v>
       </c>
     </row>
-    <row r="378" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G378">
         <v>47.907970570000003</v>
       </c>
@@ -9349,7 +9506,7 @@
         <v>51.822112163</v>
       </c>
     </row>
-    <row r="379" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G379">
         <v>75.886910189999995</v>
       </c>
@@ -9357,7 +9514,7 @@
         <v>76.581713720400003</v>
       </c>
     </row>
-    <row r="380" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G380">
         <v>57.400334170000001</v>
       </c>
@@ -9365,7 +9522,7 @@
         <v>61.237110692199998</v>
       </c>
     </row>
-    <row r="381" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G381">
         <v>91.927495499999907</v>
       </c>
@@ -9373,7 +9530,7 @@
         <v>94.008857763799995</v>
       </c>
     </row>
-    <row r="382" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G382">
         <v>64.906661479999997</v>
       </c>
@@ -9381,7 +9538,7 @@
         <v>66.793273041099994</v>
       </c>
     </row>
-    <row r="383" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G383">
         <v>59.427363700000001</v>
       </c>
@@ -9389,7 +9546,7 @@
         <v>61.344910456900003</v>
       </c>
     </row>
-    <row r="384" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G384">
         <v>61.250621340000002</v>
       </c>
@@ -9397,7 +9554,7 @@
         <v>64.259409188299998</v>
       </c>
     </row>
-    <row r="385" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G385">
         <v>50.315806930000001</v>
       </c>
@@ -9405,7 +9562,7 @@
         <v>54.421627619799999</v>
       </c>
     </row>
-    <row r="386" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G386">
         <v>72.530756299999993</v>
       </c>
@@ -9413,7 +9570,7 @@
         <v>71.804076491800004</v>
       </c>
     </row>
-    <row r="387" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G387">
         <v>60.529991129999999</v>
       </c>
@@ -9421,7 +9578,7 @@
         <v>60.849980946499997</v>
       </c>
     </row>
-    <row r="388" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G388">
         <v>70.031747210000006</v>
       </c>
@@ -9429,7 +9586,7 @@
         <v>69.469579263699998</v>
       </c>
     </row>
-    <row r="389" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G389">
         <v>76.787543479999997</v>
       </c>
@@ -9437,7 +9594,7 @@
         <v>80.402409431899997</v>
       </c>
     </row>
-    <row r="390" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G390">
         <v>77.359103230000002</v>
       </c>
@@ -9445,7 +9602,7 @@
         <v>79.853932203200003</v>
       </c>
     </row>
-    <row r="391" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G391">
         <v>34.94064092</v>
       </c>
@@ -9453,7 +9610,7 @@
         <v>40.490916408499999</v>
       </c>
     </row>
-    <row r="392" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G392">
         <v>57.635578639999999</v>
       </c>
@@ -9461,7 +9618,7 @@
         <v>58.361083434500003</v>
       </c>
     </row>
-    <row r="393" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G393">
         <v>55.882407749999999</v>
       </c>
@@ -9469,7 +9626,7 @@
         <v>57.990081982699998</v>
       </c>
     </row>
-    <row r="394" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G394">
         <v>47.570868580000003</v>
       </c>
@@ -9477,7 +9634,7 @@
         <v>49.101629409799997</v>
       </c>
     </row>
-    <row r="395" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G395">
         <v>82.486437210000005</v>
       </c>
@@ -9485,7 +9642,7 @@
         <v>81.899582259400006</v>
       </c>
     </row>
-    <row r="396" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G396">
         <v>39.346706820000001</v>
       </c>
@@ -9493,7 +9650,7 @@
         <v>41.104676948399998</v>
       </c>
     </row>
-    <row r="397" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G397">
         <v>45.36125861</v>
       </c>
@@ -9501,7 +9658,7 @@
         <v>45.729312721299998</v>
       </c>
     </row>
-    <row r="398" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G398">
         <v>60.899223759999998</v>
       </c>
@@ -9509,7 +9666,7 @@
         <v>62.794080492600003</v>
       </c>
     </row>
-    <row r="399" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G399">
         <v>50.035305970000003</v>
       </c>
@@ -9517,7 +9674,7 @@
         <v>53.254872822300001</v>
       </c>
     </row>
-    <row r="400" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G400">
         <v>61.872424129999999</v>
       </c>
@@ -9525,7 +9682,7 @@
         <v>64.779335333899994</v>
       </c>
     </row>
-    <row r="401" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G401">
         <v>46.259329139999998</v>
       </c>
@@ -9533,7 +9690,7 @@
         <v>47.515611166600003</v>
       </c>
     </row>
-    <row r="402" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G402">
         <v>39.996613320000002</v>
       </c>
@@ -9541,7 +9698,7 @@
         <v>42.818078026999999</v>
       </c>
     </row>
-    <row r="403" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G403">
         <v>62.263691710000003</v>
       </c>
@@ -9549,7 +9706,7 @@
         <v>63.807495849299997</v>
       </c>
     </row>
-    <row r="404" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G404">
         <v>51.214348020000003</v>
       </c>
@@ -9557,7 +9714,7 @@
         <v>52.394626099299998</v>
       </c>
     </row>
-    <row r="405" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G405">
         <v>27.661182019999998</v>
       </c>
@@ -9565,7 +9722,7 @@
         <v>31.8845079532</v>
       </c>
     </row>
-    <row r="406" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G406">
         <v>87.772411539999993</v>
       </c>
@@ -9573,7 +9730,7 @@
         <v>86.613310068000004</v>
       </c>
     </row>
-    <row r="407" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G407">
         <v>48.618461060000001</v>
       </c>
@@ -9581,7 +9738,7 @@
         <v>52.628467928699997</v>
       </c>
     </row>
-    <row r="408" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G408">
         <v>105.62637429999999</v>
       </c>
@@ -9589,7 +9746,7 @@
         <v>104.245717938</v>
       </c>
     </row>
-    <row r="409" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G409">
         <v>45.670835169999997</v>
       </c>
@@ -9597,7 +9754,7 @@
         <v>46.942601392299999</v>
       </c>
     </row>
-    <row r="410" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G410">
         <v>78.891221970000004</v>
       </c>
@@ -9605,7 +9762,7 @@
         <v>78.583469302500006</v>
       </c>
     </row>
-    <row r="411" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G411">
         <v>105.1126828</v>
       </c>
@@ -9613,7 +9770,7 @@
         <v>106.35586504299999</v>
       </c>
     </row>
-    <row r="412" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G412">
         <v>53.455198690000003</v>
       </c>
@@ -9621,7 +9778,7 @@
         <v>57.192824851600001</v>
       </c>
     </row>
-    <row r="413" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G413">
         <v>32.05407932</v>
       </c>
@@ -9629,7 +9786,7 @@
         <v>34.159448002799998</v>
       </c>
     </row>
-    <row r="414" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G414">
         <v>61.508322409999998</v>
       </c>
@@ -9637,7 +9794,7 @@
         <v>62.657749143399997</v>
       </c>
     </row>
-    <row r="415" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G415">
         <v>68.945863630000005</v>
       </c>
@@ -9645,7 +9802,7 @@
         <v>72.042418325699998</v>
       </c>
     </row>
-    <row r="416" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G416">
         <v>57.84305895</v>
       </c>
@@ -9653,7 +9810,7 @@
         <v>59.6484979345</v>
       </c>
     </row>
-    <row r="417" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G417">
         <v>63.135611529999998</v>
       </c>
@@ -9661,7 +9818,7 @@
         <v>66.041112261999999</v>
       </c>
     </row>
-    <row r="418" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G418">
         <v>58.626012449999998</v>
       </c>
@@ -9669,7 +9826,7 @@
         <v>60.191705799200001</v>
       </c>
     </row>
-    <row r="419" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G419">
         <v>54.164131470000001</v>
       </c>
@@ -9677,7 +9834,7 @@
         <v>54.142873030700002</v>
       </c>
     </row>
-    <row r="420" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G420">
         <v>62.957192769999999</v>
       </c>
@@ -9685,7 +9842,7 @@
         <v>65.034676399600002</v>
       </c>
     </row>
-    <row r="421" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G421">
         <v>59.336992109999997</v>
       </c>
@@ -9693,7 +9850,7 @@
         <v>61.158932070699997</v>
       </c>
     </row>
-    <row r="422" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G422">
         <v>58.589318509999998</v>
       </c>
@@ -9701,7 +9858,7 @@
         <v>62.5794946567</v>
       </c>
     </row>
-    <row r="423" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G423">
         <v>53.476938670000003</v>
       </c>
@@ -9709,7 +9866,7 @@
         <v>58.783294857500003</v>
       </c>
     </row>
-    <row r="424" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G424">
         <v>68.760520630000002</v>
       </c>
@@ -9717,7 +9874,7 @@
         <v>72.017686855199997</v>
       </c>
     </row>
-    <row r="425" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G425">
         <v>56.593911110000001</v>
       </c>
@@ -9725,7 +9882,7 @@
         <v>58.319269014699998</v>
       </c>
     </row>
-    <row r="426" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G426">
         <v>75.866170389999994</v>
       </c>
@@ -9733,7 +9890,7 @@
         <v>76.550232904300003</v>
       </c>
     </row>
-    <row r="427" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G427">
         <v>57.536393019999998</v>
       </c>
@@ -9741,7 +9898,7 @@
         <v>59.862295547499997</v>
       </c>
     </row>
-    <row r="428" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G428">
         <v>33.649331119999999</v>
       </c>
@@ -9749,7 +9906,7 @@
         <v>36.394338947999998</v>
       </c>
     </row>
-    <row r="429" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G429">
         <v>43.06463857</v>
       </c>
@@ -9757,7 +9914,7 @@
         <v>46.392818399299998</v>
       </c>
     </row>
-    <row r="430" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G430">
         <v>69.20947846</v>
       </c>
@@ -9765,7 +9922,7 @@
         <v>71.833633467599995</v>
       </c>
     </row>
-    <row r="431" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G431">
         <v>66.289989439999999</v>
       </c>
@@ -9773,7 +9930,7 @@
         <v>67.711429444399997</v>
       </c>
     </row>
-    <row r="432" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G432">
         <v>54.867377439999999</v>
       </c>
@@ -9781,7 +9938,7 @@
         <v>56.456288712400003</v>
       </c>
     </row>
-    <row r="433" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G433">
         <v>52.98468957</v>
       </c>
@@ -9789,7 +9946,7 @@
         <v>55.552520922299998</v>
       </c>
     </row>
-    <row r="434" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G434">
         <v>91.030857510000004</v>
       </c>
@@ -9797,7 +9954,7 @@
         <v>92.956177184200001</v>
       </c>
     </row>
-    <row r="435" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G435">
         <v>58.75673321</v>
       </c>
@@ -9805,7 +9962,7 @@
         <v>59.7598717511</v>
       </c>
     </row>
-    <row r="436" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G436">
         <v>65.83369836</v>
       </c>
@@ -9813,7 +9970,7 @@
         <v>67.462618325600005</v>
       </c>
     </row>
-    <row r="437" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G437">
         <v>77.172745520000007</v>
       </c>
@@ -9821,7 +9978,7 @@
         <v>80.598736007900001</v>
       </c>
     </row>
-    <row r="438" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G438">
         <v>80.29970745</v>
       </c>
@@ -9829,7 +9986,7 @@
         <v>82.868797197500001</v>
       </c>
     </row>
-    <row r="439" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G439">
         <v>71.973468589999996</v>
       </c>
@@ -9837,7 +9994,7 @@
         <v>77.4903355366</v>
       </c>
     </row>
-    <row r="440" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G440">
         <v>31.522481460000002</v>
       </c>
@@ -9845,7 +10002,7 @@
         <v>35.109100733600002</v>
       </c>
     </row>
-    <row r="441" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G441">
         <v>67.762006729999996</v>
       </c>
@@ -9853,7 +10010,7 @@
         <v>68.065244579600005</v>
       </c>
     </row>
-    <row r="442" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G442">
         <v>64.719553450000006</v>
       </c>
@@ -9861,7 +10018,7 @@
         <v>66.288335102600001</v>
       </c>
     </row>
-    <row r="443" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G443">
         <v>37.595556170000002</v>
       </c>
@@ -9869,7 +10026,7 @@
         <v>41.813458804100001</v>
       </c>
     </row>
-    <row r="444" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G444">
         <v>89.629531569999997</v>
       </c>
@@ -9877,7 +10034,7 @@
         <v>91.110697340499996</v>
       </c>
     </row>
-    <row r="445" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G445">
         <v>68.035809299999997</v>
       </c>
@@ -9885,7 +10042,7 @@
         <v>67.7306854813</v>
       </c>
     </row>
-    <row r="446" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G446">
         <v>64.099474040000004</v>
       </c>
@@ -9893,7 +10050,7 @@
         <v>67.727743948599993</v>
       </c>
     </row>
-    <row r="447" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G447">
         <v>76.818156139999999</v>
       </c>
@@ -9901,7 +10058,7 @@
         <v>77.725761002200002</v>
       </c>
     </row>
-    <row r="448" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G448">
         <v>54.350352999999998</v>
       </c>
@@ -9909,7 +10066,7 @@
         <v>56.342116482400002</v>
       </c>
     </row>
-    <row r="449" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G449">
         <v>61.129630990000003</v>
       </c>
@@ -9917,7 +10074,7 @@
         <v>64.4155042573</v>
       </c>
     </row>
-    <row r="450" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G450">
         <v>63.917020370000003</v>
       </c>
@@ -9925,7 +10082,7 @@
         <v>64.488233021200003</v>
       </c>
     </row>
-    <row r="451" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G451">
         <v>98.049659939999998</v>
       </c>
@@ -9933,7 +10090,7 @@
         <v>97.508141373499996</v>
       </c>
     </row>
-    <row r="452" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G452">
         <v>60.584081750000003</v>
       </c>
@@ -9941,7 +10098,7 @@
         <v>61.946451490800001</v>
       </c>
     </row>
-    <row r="453" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G453">
         <v>70.037796880000002</v>
       </c>
@@ -9949,7 +10106,7 @@
         <v>74.336305595100001</v>
       </c>
     </row>
-    <row r="454" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G454">
         <v>44.850085460000003</v>
       </c>
@@ -9957,7 +10114,7 @@
         <v>50.005902984700001</v>
       </c>
     </row>
-    <row r="455" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G455">
         <v>70.062592769999995</v>
       </c>
@@ -9965,7 +10122,7 @@
         <v>72.174210789699998</v>
       </c>
     </row>
-    <row r="456" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G456">
         <v>50.928126829999997</v>
       </c>
@@ -9973,7 +10130,7 @@
         <v>53.591062193100001</v>
       </c>
     </row>
-    <row r="457" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G457">
         <v>47.314471789999999</v>
       </c>
@@ -9981,7 +10138,7 @@
         <v>48.868440138499999</v>
       </c>
     </row>
-    <row r="458" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G458">
         <v>68.306917769999998</v>
       </c>
@@ -9989,7 +10146,7 @@
         <v>68.552942087999995</v>
       </c>
     </row>
-    <row r="459" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G459">
         <v>54.87558121</v>
       </c>
@@ -9997,7 +10154,7 @@
         <v>56.011547358599998</v>
       </c>
     </row>
-    <row r="460" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G460">
         <v>68.196389400000001</v>
       </c>
@@ -10005,7 +10162,7 @@
         <v>67.675946368699996</v>
       </c>
     </row>
-    <row r="461" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G461">
         <v>49.381567660000002</v>
       </c>
@@ -10013,7 +10170,7 @@
         <v>53.256285470100003</v>
       </c>
     </row>
-    <row r="462" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G462">
         <v>45.491606660000002</v>
       </c>
@@ -10021,7 +10178,7 @@
         <v>47.384684373600003</v>
       </c>
     </row>
-    <row r="463" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G463">
         <v>55.147074459999999</v>
       </c>
@@ -10029,7 +10186,7 @@
         <v>58.080254736299999</v>
       </c>
     </row>
-    <row r="464" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G464">
         <v>54.577356899999998</v>
       </c>
@@ -10037,7 +10194,7 @@
         <v>57.7219790754</v>
       </c>
     </row>
-    <row r="465" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G465">
         <v>62.116677500000002</v>
       </c>
@@ -10045,7 +10202,7 @@
         <v>65.770088730699996</v>
       </c>
     </row>
-    <row r="466" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G466">
         <v>79.943051879999999</v>
       </c>
@@ -10053,7 +10210,7 @@
         <v>79.852032913800002</v>
       </c>
     </row>
-    <row r="467" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G467">
         <v>72.139816740000001</v>
       </c>
@@ -10061,7 +10218,7 @@
         <v>78.532475352899993</v>
       </c>
     </row>
-    <row r="468" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G468">
         <v>89.681362710000002</v>
       </c>
@@ -10069,7 +10226,7 @@
         <v>92.353829470700006</v>
       </c>
     </row>
-    <row r="469" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G469">
         <v>63.382983119999999</v>
       </c>
@@ -10077,7 +10234,7 @@
         <v>67.807178463200003</v>
       </c>
     </row>
-    <row r="470" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G470">
         <v>56.16959001</v>
       </c>
@@ -10085,7 +10242,7 @@
         <v>58.699300635</v>
       </c>
     </row>
-    <row r="471" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G471">
         <v>50.161840650000002</v>
       </c>
@@ -10093,7 +10250,7 @@
         <v>51.365083776699997</v>
       </c>
     </row>
-    <row r="472" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G472">
         <v>51.6688939</v>
       </c>
@@ -10101,7 +10258,7 @@
         <v>54.524588897100003</v>
       </c>
     </row>
-    <row r="473" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G473">
         <v>55.818812219999998</v>
       </c>
@@ -10109,7 +10266,7 @@
         <v>57.258642794499998</v>
       </c>
     </row>
-    <row r="474" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G474">
         <v>58.681403969999998</v>
       </c>
@@ -10117,7 +10274,7 @@
         <v>60.214956869300003</v>
       </c>
     </row>
-    <row r="475" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G475">
         <v>63.832674240000003</v>
       </c>
@@ -10125,7 +10282,7 @@
         <v>64.318662802800006</v>
       </c>
     </row>
-    <row r="476" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G476">
         <v>71.157152940000003</v>
       </c>
@@ -10133,7 +10290,7 @@
         <v>75.270062585800005</v>
       </c>
     </row>
-    <row r="477" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G477">
         <v>76.529605810000007</v>
       </c>
@@ -10141,7 +10298,7 @@
         <v>77.406579768</v>
       </c>
     </row>
-    <row r="478" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G478">
         <v>45.547325880000002</v>
       </c>
@@ -10149,7 +10306,7 @@
         <v>46.914349371699998</v>
       </c>
     </row>
-    <row r="479" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G479">
         <v>35.148510610000002</v>
       </c>
@@ -10157,7 +10314,7 @@
         <v>40.202556577899998</v>
       </c>
     </row>
-    <row r="480" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G480">
         <v>67.441238979999994</v>
       </c>
@@ -10165,7 +10322,7 @@
         <v>68.544815036200006</v>
       </c>
     </row>
-    <row r="481" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G481">
         <v>53.502782109999998</v>
       </c>
@@ -10173,7 +10330,7 @@
         <v>55.316813613500003</v>
       </c>
     </row>
-    <row r="482" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G482">
         <v>52.079608100000002</v>
       </c>
@@ -10181,7 +10338,7 @@
         <v>56.449961364000004</v>
       </c>
     </row>
-    <row r="483" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G483">
         <v>122.1043152</v>
       </c>
@@ -10189,7 +10346,7 @@
         <v>122.42806960599999</v>
       </c>
     </row>
-    <row r="484" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G484">
         <v>67.245350889999997</v>
       </c>
@@ -10197,7 +10354,7 @@
         <v>68.331762823099993</v>
       </c>
     </row>
-    <row r="485" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G485">
         <v>68.8873605</v>
       </c>
@@ -10205,7 +10362,7 @@
         <v>69.065855032100004</v>
       </c>
     </row>
-    <row r="486" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G486">
         <v>35.977422830000002</v>
       </c>
@@ -10213,7 +10370,7 @@
         <v>37.671297836299999</v>
       </c>
     </row>
-    <row r="487" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G487">
         <v>78.660167749999999</v>
       </c>
@@ -10221,7 +10378,7 @@
         <v>79.572117310699994</v>
       </c>
     </row>
-    <row r="488" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G488">
         <v>64.769374850000005</v>
       </c>
@@ -10229,7 +10386,7 @@
         <v>67.617308758999997</v>
       </c>
     </row>
-    <row r="489" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G489">
         <v>70.364487620000006</v>
       </c>
@@ -10237,7 +10394,7 @@
         <v>70.628738911200003</v>
       </c>
     </row>
-    <row r="490" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G490">
         <v>32.76752192</v>
       </c>
@@ -10245,7 +10402,7 @@
         <v>33.411041167199997</v>
       </c>
     </row>
-    <row r="491" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G491">
         <v>57.909919279999997</v>
       </c>
@@ -10253,7 +10410,7 @@
         <v>59.423141771700003</v>
       </c>
     </row>
-    <row r="492" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G492">
         <v>36.95182861</v>
       </c>
@@ -10261,7 +10418,7 @@
         <v>39.432419668800001</v>
       </c>
     </row>
-    <row r="493" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G493">
         <v>63.833460459999998</v>
       </c>
@@ -10269,7 +10426,7 @@
         <v>65.282662809800001</v>
       </c>
     </row>
-    <row r="494" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G494">
         <v>65.691881999999893</v>
       </c>
@@ -10277,7 +10434,7 @@
         <v>65.967901998499997</v>
       </c>
     </row>
-    <row r="495" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G495">
         <v>65.914396339999996</v>
       </c>
@@ -10285,7 +10442,7 @@
         <v>68.203216712499994</v>
       </c>
     </row>
-    <row r="496" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G496">
         <v>59.55096279</v>
       </c>
@@ -10293,7 +10450,7 @@
         <v>62.786541509800003</v>
       </c>
     </row>
-    <row r="497" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G497">
         <v>67.115749919999999</v>
       </c>
@@ -10301,7 +10458,7 @@
         <v>70.353599007400007</v>
       </c>
     </row>
-    <row r="498" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G498">
         <v>70.914334030000006</v>
       </c>
@@ -10309,7 +10466,7 @@
         <v>71.8994377426</v>
       </c>
     </row>
-    <row r="499" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G499">
         <v>58.582655440000003</v>
       </c>
@@ -10317,7 +10474,7 @@
         <v>62.495280940999997</v>
       </c>
     </row>
-    <row r="500" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G500">
         <v>67.183963689999999</v>
       </c>
@@ -10325,7 +10482,7 @@
         <v>68.581318079100001</v>
       </c>
     </row>
-    <row r="501" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G501">
         <v>55.496700660000002</v>
       </c>
@@ -10333,7 +10490,7 @@
         <v>58.910581384799997</v>
       </c>
     </row>
-    <row r="502" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G502">
         <v>80.140072559999993</v>
       </c>
@@ -10341,7 +10498,7 @@
         <v>80.967034068199993</v>
       </c>
     </row>
-    <row r="503" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G503">
         <v>51.197141690000002</v>
       </c>
@@ -10349,7 +10506,7 @@
         <v>53.089314276300001</v>
       </c>
     </row>
-    <row r="504" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G504">
         <v>63.935376699999999</v>
       </c>
@@ -10357,7 +10514,7 @@
         <v>64.606417244400006</v>
       </c>
     </row>
-    <row r="505" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G505">
         <v>94.879379130000004</v>
       </c>
@@ -10365,7 +10522,7 @@
         <v>95.899269150699993</v>
       </c>
     </row>
-    <row r="506" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G506">
         <v>72.769674780000003</v>
       </c>
@@ -10373,7 +10530,7 @@
         <v>74.7163290453</v>
       </c>
     </row>
-    <row r="507" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G507">
         <v>49.953565330000004</v>
       </c>
@@ -10381,7 +10538,7 @@
         <v>53.456925820899997</v>
       </c>
     </row>
-    <row r="508" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G508">
         <v>50.293639020000001</v>
       </c>
@@ -10389,7 +10546,7 @@
         <v>54.014964129799999</v>
       </c>
     </row>
-    <row r="509" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G509">
         <v>48.475910140000003</v>
       </c>
@@ -10397,7 +10554,7 @@
         <v>52.022172371899998</v>
       </c>
     </row>
-    <row r="510" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G510">
         <v>18.386217819999999</v>
       </c>
@@ -10405,7 +10562,7 @@
         <v>20.477108135000002</v>
       </c>
     </row>
-    <row r="511" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G511">
         <v>42.854500690000002</v>
       </c>
@@ -10413,7 +10570,7 @@
         <v>48.31495804</v>
       </c>
     </row>
-    <row r="512" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G512">
         <v>71.37410835</v>
       </c>
@@ -10421,7 +10578,7 @@
         <v>74.589210315800003</v>
       </c>
     </row>
-    <row r="513" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G513">
         <v>42.70300752</v>
       </c>
@@ -10429,7 +10586,7 @@
         <v>44.804497654999999</v>
       </c>
     </row>
-    <row r="514" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G514">
         <v>55.956575669999999</v>
       </c>
@@ -10437,7 +10594,7 @@
         <v>56.4224082729</v>
       </c>
     </row>
-    <row r="515" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G515">
         <v>111.4892935</v>
       </c>
@@ -10445,7 +10602,7 @@
         <v>109.052387076</v>
       </c>
     </row>
-    <row r="516" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G516">
         <v>93.828215270000001</v>
       </c>
@@ -10453,7 +10610,7 @@
         <v>90.909597824900004</v>
       </c>
     </row>
-    <row r="517" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G517">
         <v>79.437670569999995</v>
       </c>
@@ -10461,7 +10618,7 @@
         <v>78.681197362000006</v>
       </c>
     </row>
-    <row r="518" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G518">
         <v>56.694489599999997</v>
       </c>
@@ -10469,7 +10626,7 @@
         <v>60.012955885499998</v>
       </c>
     </row>
-    <row r="519" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G519">
         <v>65.492371390000002</v>
       </c>
@@ -10477,7 +10634,7 @@
         <v>66.130106440800006</v>
       </c>
     </row>
-    <row r="520" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G520">
         <v>54.917558929999998</v>
       </c>
@@ -10485,7 +10642,7 @@
         <v>57.3453565923</v>
       </c>
     </row>
-    <row r="521" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G521">
         <v>82.427625469999995</v>
       </c>
@@ -10493,7 +10650,7 @@
         <v>83.129334451099993</v>
       </c>
     </row>
-    <row r="522" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G522">
         <v>72.891669870000001</v>
       </c>
@@ -10501,7 +10658,7 @@
         <v>76.919176191000005</v>
       </c>
     </row>
-    <row r="523" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G523">
         <v>62.44370464</v>
       </c>
@@ -10509,7 +10666,7 @@
         <v>62.818433441700002</v>
       </c>
     </row>
-    <row r="524" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G524">
         <v>71.895107569999993</v>
       </c>
@@ -10517,7 +10674,7 @@
         <v>73.222804612100006</v>
       </c>
     </row>
-    <row r="525" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G525">
         <v>71.159099920000003</v>
       </c>
@@ -10525,7 +10682,7 @@
         <v>72.332117542700004</v>
       </c>
     </row>
-    <row r="526" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G526">
         <v>55.496700660000002</v>
       </c>
@@ -10533,7 +10690,7 @@
         <v>58.910581384799997</v>
       </c>
     </row>
-    <row r="527" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G527">
         <v>102.767989</v>
       </c>
@@ -10541,7 +10698,7 @@
         <v>105.157581249</v>
       </c>
     </row>
-    <row r="528" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G528">
         <v>81.374635060000003</v>
       </c>
@@ -10549,7 +10706,7 @@
         <v>82.389983943000004</v>
       </c>
     </row>
-    <row r="529" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G529">
         <v>56.710304299999997</v>
       </c>
@@ -10557,7 +10714,7 @@
         <v>59.795165079100002</v>
       </c>
     </row>
-    <row r="530" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G530">
         <v>86.992382210000002</v>
       </c>
@@ -10565,7 +10722,7 @@
         <v>86.870380755499994</v>
       </c>
     </row>
-    <row r="531" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G531">
         <v>57.326676249999998</v>
       </c>
@@ -10573,7 +10730,7 @@
         <v>58.067382560399999</v>
       </c>
     </row>
-    <row r="532" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G532">
         <v>66.904944380000003</v>
       </c>
@@ -10581,7 +10738,7 @@
         <v>65.182760508399994</v>
       </c>
     </row>
-    <row r="533" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G533">
         <v>73.295561629999995</v>
       </c>
@@ -10589,7 +10746,7 @@
         <v>73.341272106399998</v>
       </c>
     </row>
-    <row r="534" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G534">
         <v>48.745639570000002</v>
       </c>
@@ -10597,7 +10754,7 @@
         <v>50.118828264199998</v>
       </c>
     </row>
-    <row r="535" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G535">
         <v>79.695666200000005</v>
       </c>
@@ -10605,7 +10762,7 @@
         <v>78.5151559663</v>
       </c>
     </row>
-    <row r="536" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G536">
         <v>55.143837179999998</v>
       </c>
@@ -10613,7 +10770,7 @@
         <v>56.162899673399998</v>
       </c>
     </row>
-    <row r="537" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G537">
         <v>66.343902909999997</v>
       </c>
@@ -10621,7 +10778,7 @@
         <v>68.518667282199999</v>
       </c>
     </row>
-    <row r="538" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G538">
         <v>57.06813726</v>
       </c>
@@ -10629,7 +10786,7 @@
         <v>57.468543425699998</v>
       </c>
     </row>
-    <row r="539" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G539">
         <v>66.230520380000002</v>
       </c>
@@ -10637,7 +10794,7 @@
         <v>70.9587967362</v>
       </c>
     </row>
-    <row r="540" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G540">
         <v>58.377946219999998</v>
       </c>
@@ -10645,7 +10802,7 @@
         <v>59.899692662</v>
       </c>
     </row>
-    <row r="541" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G541">
         <v>49.939999989999997</v>
       </c>
@@ -10653,7 +10810,7 @@
         <v>51.891091362700003</v>
       </c>
     </row>
-    <row r="542" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G542">
         <v>69.5250450999999</v>
       </c>
@@ -10661,7 +10818,7 @@
         <v>73.345202632600007</v>
       </c>
     </row>
-    <row r="543" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G543">
         <v>81.798066250000005</v>
       </c>
@@ -10669,7 +10826,7 @@
         <v>84.622735444699998</v>
       </c>
     </row>
-    <row r="544" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G544">
         <v>65.925380989999994</v>
       </c>
@@ -10677,7 +10834,7 @@
         <v>66.892237522599999</v>
       </c>
     </row>
-    <row r="545" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G545">
         <v>50.719361720000002</v>
       </c>
@@ -10685,7 +10842,7 @@
         <v>57.387838467100003</v>
       </c>
     </row>
-    <row r="546" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G546">
         <v>57.410812030000002</v>
       </c>
@@ -10693,7 +10850,7 @@
         <v>60.945761296599997</v>
       </c>
     </row>
-    <row r="547" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G547">
         <v>58.637235609999998</v>
       </c>
@@ -10701,7 +10858,7 @@
         <v>62.799193510899997</v>
       </c>
     </row>
-    <row r="548" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G548">
         <v>64.101713739999994</v>
       </c>
@@ -10709,7 +10866,7 @@
         <v>64.722827016500005</v>
       </c>
     </row>
-    <row r="549" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G549">
         <v>46.030800630000002</v>
       </c>
@@ -10717,7 +10874,7 @@
         <v>50.903519614399997</v>
       </c>
     </row>
-    <row r="550" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G550">
         <v>82.9952969</v>
       </c>
@@ -10725,7 +10882,7 @@
         <v>84.564633689700003</v>
       </c>
     </row>
-    <row r="551" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G551">
         <v>80.354729329999998</v>
       </c>
@@ -10733,7 +10890,7 @@
         <v>84.112076202400004</v>
       </c>
     </row>
-    <row r="552" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G552">
         <v>56.172599050000002</v>
       </c>
@@ -10741,7 +10898,7 @@
         <v>56.332661358099998</v>
       </c>
     </row>
-    <row r="553" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G553">
         <v>49.146700070000001</v>
       </c>
@@ -10749,7 +10906,7 @@
         <v>53.078957808299997</v>
       </c>
     </row>
-    <row r="554" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G554">
         <v>62.774117259999997</v>
       </c>
@@ -10757,7 +10914,7 @@
         <v>66.059322136899993</v>
       </c>
     </row>
-    <row r="555" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G555">
         <v>91.500667160000006</v>
       </c>
@@ -10765,7 +10922,7 @@
         <v>91.551174201799995</v>
       </c>
     </row>
-    <row r="556" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G556">
         <v>73.064796139999999</v>
       </c>
@@ -10773,7 +10930,7 @@
         <v>73.836593901900002</v>
       </c>
     </row>
-    <row r="557" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G557">
         <v>48.72169306</v>
       </c>
@@ -10781,7 +10938,7 @@
         <v>51.641523293699997</v>
       </c>
     </row>
-    <row r="558" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G558">
         <v>62.482829850000002</v>
       </c>
@@ -10789,7 +10946,7 @@
         <v>62.3906999943</v>
       </c>
     </row>
-    <row r="559" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G559">
         <v>52.685784920000003</v>
       </c>
@@ -10797,7 +10954,7 @@
         <v>52.362753182699997</v>
       </c>
     </row>
-    <row r="560" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G560">
         <v>61.409741349999997</v>
       </c>
@@ -10805,7 +10962,7 @@
         <v>62.496763193500001</v>
       </c>
     </row>
-    <row r="561" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G561">
         <v>39.836269909999999</v>
       </c>
@@ -10813,7 +10970,7 @@
         <v>43.7762356215</v>
       </c>
     </row>
-    <row r="562" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G562">
         <v>63.237746780000002</v>
       </c>
@@ -10821,7 +10978,7 @@
         <v>70.157026306199995</v>
       </c>
     </row>
-    <row r="563" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G563">
         <v>38.90823176</v>
       </c>
@@ -10829,7 +10986,7 @@
         <v>44.527937298700003</v>
       </c>
     </row>
-    <row r="564" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G564">
         <v>25.692247210000001</v>
       </c>
@@ -10837,7 +10994,7 @@
         <v>29.400668747400001</v>
       </c>
     </row>
-    <row r="565" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G565">
         <v>57.97849428</v>
       </c>
@@ -10845,7 +11002,7 @@
         <v>60.470544414199999</v>
       </c>
     </row>
-    <row r="566" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G566">
         <v>51.375319040000001</v>
       </c>
@@ -10853,7 +11010,7 @@
         <v>60.538724159200001</v>
       </c>
     </row>
-    <row r="567" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G567">
         <v>44.233189680000002</v>
       </c>
@@ -10861,7 +11018,7 @@
         <v>48.074453019300002</v>
       </c>
     </row>
-    <row r="568" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G568">
         <v>30.47041248</v>
       </c>
@@ -10869,7 +11026,7 @@
         <v>35.2328719785</v>
       </c>
     </row>
-    <row r="569" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G569">
         <v>35.928965669999997</v>
       </c>
@@ -10877,7 +11034,7 @@
         <v>36.149622247499998</v>
       </c>
     </row>
-    <row r="570" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G570">
         <v>59.132472960000001</v>
       </c>
@@ -10885,7 +11042,7 @@
         <v>63.314735699099998</v>
       </c>
     </row>
-    <row r="571" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G571">
         <v>36.340531509999998</v>
       </c>
@@ -10893,7 +11050,7 @@
         <v>40.294907542300002</v>
       </c>
     </row>
-    <row r="572" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G572">
         <v>29.680832599999999</v>
       </c>
@@ -10901,7 +11058,7 @@
         <v>33.972252372200003</v>
       </c>
     </row>
-    <row r="573" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G573">
         <v>30.184888780000001</v>
       </c>
@@ -10909,7 +11066,7 @@
         <v>33.944696824499999</v>
       </c>
     </row>
-    <row r="574" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G574">
         <v>74.349242450000006</v>
       </c>
@@ -10917,7 +11074,7 @@
         <v>76.642650530899999</v>
       </c>
     </row>
-    <row r="575" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G575">
         <v>36.050145819999997</v>
       </c>
@@ -10925,7 +11082,7 @@
         <v>40.326063962600003</v>
       </c>
     </row>
-    <row r="576" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G576">
         <v>54.432966649999997</v>
       </c>
@@ -10933,7 +11090,7 @@
         <v>55.115556787499997</v>
       </c>
     </row>
-    <row r="577" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G577">
         <v>54.954821799999998</v>
       </c>
@@ -10941,7 +11098,7 @@
         <v>55.503330137900001</v>
       </c>
     </row>
-    <row r="578" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G578">
         <v>61.956116049999999</v>
       </c>
@@ -10949,7 +11106,7 @@
         <v>61.985249282700003</v>
       </c>
     </row>
-    <row r="579" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G579">
         <v>69.151057879999996</v>
       </c>
@@ -10957,7 +11114,7 @@
         <v>69.198655932299999</v>
       </c>
     </row>
-    <row r="580" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G580">
         <v>62.108151069999998</v>
       </c>
@@ -10965,7 +11122,7 @@
         <v>61.9354938484</v>
       </c>
     </row>
-    <row r="581" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G581">
         <v>72.135330550000006</v>
       </c>
@@ -10973,7 +11130,7 @@
         <v>71.287544776499999</v>
       </c>
     </row>
-    <row r="582" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G582">
         <v>74.334084320000002</v>
       </c>
@@ -10981,7 +11138,7 @@
         <v>74.557881136299997</v>
       </c>
     </row>
-    <row r="583" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G583">
         <v>49.566409200000002</v>
       </c>
@@ -10989,7 +11146,7 @@
         <v>52.2917244665</v>
       </c>
     </row>
-    <row r="584" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G584">
         <v>90.198844350000002</v>
       </c>
@@ -10997,7 +11154,7 @@
         <v>89.369076663499996</v>
       </c>
     </row>
-    <row r="585" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G585">
         <v>66.249957530000003</v>
       </c>
@@ -11005,7 +11162,7 @@
         <v>70.193965856600002</v>
       </c>
     </row>
-    <row r="586" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G586">
         <v>72.644936560000005</v>
       </c>
@@ -11013,7 +11170,7 @@
         <v>72.104646659799997</v>
       </c>
     </row>
-    <row r="587" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G587">
         <v>84.229685520000004</v>
       </c>
@@ -11021,7 +11178,7 @@
         <v>87.599660998700003</v>
       </c>
     </row>
-    <row r="588" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G588">
         <v>71.404611410000001</v>
       </c>
@@ -11029,7 +11186,7 @@
         <v>73.265105411799993</v>
       </c>
     </row>
-    <row r="589" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G589">
         <v>53.627367049999997</v>
       </c>
@@ -11037,7 +11194,7 @@
         <v>58.6389361194</v>
       </c>
     </row>
-    <row r="590" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G590">
         <v>55.983772780000002</v>
       </c>
@@ -11045,7 +11202,7 @@
         <v>56.776144605399999</v>
       </c>
     </row>
-    <row r="591" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G591">
         <v>75.888752109999999</v>
       </c>
@@ -11053,7 +11210,7 @@
         <v>77.740631260900003</v>
       </c>
     </row>
-    <row r="592" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G592">
         <v>74.497176139999993</v>
       </c>
@@ -11061,7 +11218,7 @@
         <v>78.524344952700005</v>
       </c>
     </row>
-    <row r="593" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G593">
         <v>52.959484449999998</v>
       </c>
@@ -11069,7 +11226,7 @@
         <v>60.092638558300003</v>
       </c>
     </row>
-    <row r="594" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G594">
         <v>36.084074440000002</v>
       </c>
@@ -11077,7 +11234,7 @@
         <v>37.585411924200002</v>
       </c>
     </row>
-    <row r="595" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G595">
         <v>67.656235140000007</v>
       </c>
@@ -11085,7 +11242,7 @@
         <v>70.205998486799999</v>
       </c>
     </row>
-    <row r="596" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G596">
         <v>52.764590779999999</v>
       </c>
@@ -11093,7 +11250,7 @@
         <v>57.461952715899997</v>
       </c>
     </row>
-    <row r="597" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G597">
         <v>38.571713889999998</v>
       </c>
@@ -11101,7 +11258,7 @@
         <v>42.353726237300002</v>
       </c>
     </row>
-    <row r="598" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G598">
         <v>52.296064190000003</v>
       </c>
@@ -11109,7 +11266,7 @@
         <v>52.5620492985</v>
       </c>
     </row>
-    <row r="599" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G599">
         <v>50.484899259999999</v>
       </c>
@@ -11117,7 +11274,7 @@
         <v>54.016005331700001</v>
       </c>
     </row>
-    <row r="600" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G600">
         <v>42.210820390000002</v>
       </c>
@@ -11125,7 +11282,7 @@
         <v>48.5757765408</v>
       </c>
     </row>
-    <row r="601" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G601">
         <v>42.567284819999998</v>
       </c>
@@ -11133,7 +11290,7 @@
         <v>44.028173766599998</v>
       </c>
     </row>
-    <row r="602" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G602">
         <v>88.040557530000001</v>
       </c>
@@ -11141,7 +11298,7 @@
         <v>88.262723379099995</v>
       </c>
     </row>
-    <row r="603" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G603">
         <v>52.59105804</v>
       </c>
@@ -11149,7 +11306,7 @@
         <v>54.997601511200003</v>
       </c>
     </row>
-    <row r="604" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G604">
         <v>66.218203169999995</v>
       </c>
@@ -11157,7 +11314,7 @@
         <v>67.070984428299994</v>
       </c>
     </row>
-    <row r="605" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G605">
         <v>54.929913839999998</v>
       </c>
@@ -11165,7 +11322,7 @@
         <v>60.328402508899998</v>
       </c>
     </row>
-    <row r="606" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G606">
         <v>60.766599929999998</v>
       </c>
@@ -11173,7 +11330,7 @@
         <v>61.970400777800002</v>
       </c>
     </row>
-    <row r="607" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G607">
         <v>64.107987080000001</v>
       </c>
@@ -11181,7 +11338,7 @@
         <v>67.5344774223</v>
       </c>
     </row>
-    <row r="608" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G608">
         <v>81.610794819999995</v>
       </c>
@@ -11189,7 +11346,7 @@
         <v>82.571760312999999</v>
       </c>
     </row>
-    <row r="609" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G609">
         <v>94.40731126</v>
       </c>
@@ -11197,7 +11354,7 @@
         <v>88.436103435999996</v>
       </c>
     </row>
-    <row r="610" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G610">
         <v>59.343634620000003</v>
       </c>
@@ -11205,7 +11362,7 @@
         <v>61.456936427800002</v>
       </c>
     </row>
-    <row r="611" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G611">
         <v>62.668813919999998</v>
       </c>
@@ -11213,7 +11370,7 @@
         <v>65.573154233099999</v>
       </c>
     </row>
-    <row r="612" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G612">
         <v>72.06369651</v>
       </c>
@@ -11221,7 +11378,7 @@
         <v>72.016841425099997</v>
       </c>
     </row>
-    <row r="613" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G613">
         <v>60.347041990000001</v>
       </c>
@@ -11229,7 +11386,7 @@
         <v>62.8561043244</v>
       </c>
     </row>
-    <row r="614" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G614">
         <v>81.208126050000004</v>
       </c>
@@ -11237,7 +11394,7 @@
         <v>80.429743802000004</v>
       </c>
     </row>
-    <row r="615" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G615">
         <v>41.940741860000003</v>
       </c>
@@ -11245,7 +11402,7 @@
         <v>43.366126557100003</v>
       </c>
     </row>
-    <row r="616" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G616">
         <v>78.030702329999997</v>
       </c>
@@ -11253,7 +11410,7 @@
         <v>79.074493906300006</v>
       </c>
     </row>
-    <row r="617" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G617">
         <v>14.27237757</v>
       </c>
@@ -11261,7 +11418,7 @@
         <v>16.356451298300001</v>
       </c>
     </row>
-    <row r="618" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G618">
         <v>66.982210100000003</v>
       </c>
@@ -11269,7 +11426,7 @@
         <v>68.249597968700002</v>
       </c>
     </row>
-    <row r="619" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G619">
         <v>51.487279280000003</v>
       </c>
@@ -11277,7 +11434,7 @@
         <v>54.346597174300001</v>
       </c>
     </row>
-    <row r="620" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G620">
         <v>50.20517546</v>
       </c>
@@ -11285,7 +11442,7 @@
         <v>52.779447533999999</v>
       </c>
     </row>
-    <row r="621" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G621">
         <v>60.902302349999999</v>
       </c>
@@ -11293,7 +11450,7 @@
         <v>66.7445120836</v>
       </c>
     </row>
-    <row r="622" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G622">
         <v>84.435943170000002</v>
       </c>
@@ -11301,7 +11458,7 @@
         <v>85.066621041100007</v>
       </c>
     </row>
-    <row r="623" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G623">
         <v>69.771516590000004</v>
       </c>
@@ -11309,7 +11466,7 @@
         <v>70.096468253899999</v>
       </c>
     </row>
-    <row r="624" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G624">
         <v>65.781489530000002</v>
       </c>
@@ -11317,7 +11474,7 @@
         <v>67.840980492</v>
       </c>
     </row>
-    <row r="625" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G625">
         <v>57.776293989999999</v>
       </c>
@@ -11325,7 +11482,7 @@
         <v>62.084268019</v>
       </c>
     </row>
-    <row r="626" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G626">
         <v>89.667256409999993</v>
       </c>
@@ -11333,7 +11490,7 @@
         <v>88.917576897199993</v>
       </c>
     </row>
-    <row r="627" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G627">
         <v>83.09174994</v>
       </c>
@@ -11341,7 +11498,7 @@
         <v>82.622360798499997</v>
       </c>
     </row>
-    <row r="628" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G628">
         <v>54.67938556</v>
       </c>
@@ -11349,7 +11506,7 @@
         <v>55.527099035600003</v>
       </c>
     </row>
-    <row r="629" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G629">
         <v>85.942765350000002</v>
       </c>
@@ -11357,7 +11514,7 @@
         <v>88.764138545199998</v>
       </c>
     </row>
-    <row r="630" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G630">
         <v>75.407015619999996</v>
       </c>
@@ -11365,7 +11522,7 @@
         <v>76.966607713599998</v>
       </c>
     </row>
-    <row r="631" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G631">
         <v>56.213527190000001</v>
       </c>
@@ -11373,7 +11530,7 @@
         <v>58.589120487400002</v>
       </c>
     </row>
-    <row r="632" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G632">
         <v>76.432012139999998</v>
       </c>
@@ -11381,7 +11538,7 @@
         <v>80.405300614500007</v>
       </c>
     </row>
-    <row r="633" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G633">
         <v>78.365141510000001</v>
       </c>
@@ -11389,7 +11546,7 @@
         <v>79.702008473800007</v>
       </c>
     </row>
-    <row r="634" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G634">
         <v>43.582811210000003</v>
       </c>
@@ -11397,7 +11554,7 @@
         <v>47.818884351299999</v>
       </c>
     </row>
-    <row r="635" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G635">
         <v>66.542705049999995</v>
       </c>
@@ -11405,7 +11562,7 @@
         <v>69.1629225521</v>
       </c>
     </row>
-    <row r="636" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G636">
         <v>32.802787240000001</v>
       </c>
@@ -11413,7 +11570,7 @@
         <v>35.777210269699999</v>
       </c>
     </row>
-    <row r="637" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G637">
         <v>54.698084369999997</v>
       </c>
@@ -11421,7 +11578,7 @@
         <v>58.363292466899999</v>
       </c>
     </row>
-    <row r="638" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G638">
         <v>75.273906609999997</v>
       </c>
@@ -11429,7 +11586,7 @@
         <v>76.625553542099993</v>
       </c>
     </row>
-    <row r="639" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G639">
         <v>65.907297749999998</v>
       </c>
@@ -11437,7 +11594,7 @@
         <v>70.274297632900002</v>
       </c>
     </row>
-    <row r="640" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G640">
         <v>63.313144749999999</v>
       </c>
@@ -11445,7 +11602,7 @@
         <v>65.138275022200006</v>
       </c>
     </row>
-    <row r="641" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G641">
         <v>45.349628930000002</v>
       </c>
@@ -11453,7 +11610,7 @@
         <v>49.267216838000003</v>
       </c>
     </row>
-    <row r="642" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="642" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G642">
         <v>93.665228499999998</v>
       </c>
@@ -11461,7 +11618,7 @@
         <v>93.653606269999997</v>
       </c>
     </row>
-    <row r="643" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="643" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G643">
         <v>56.401182120000001</v>
       </c>
@@ -11469,7 +11626,7 @@
         <v>56.162937624999998</v>
       </c>
     </row>
-    <row r="644" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="644" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G644">
         <v>66.869055790000004</v>
       </c>
@@ -11477,7 +11634,7 @@
         <v>67.376078061900003</v>
       </c>
     </row>
-    <row r="645" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G645">
         <v>89.658519510000005</v>
       </c>
@@ -11485,7 +11642,7 @@
         <v>89.507150784999993</v>
       </c>
     </row>
-    <row r="646" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G646">
         <v>66.333644030000002</v>
       </c>
@@ -11493,7 +11650,7 @@
         <v>72.644097877500002</v>
       </c>
     </row>
-    <row r="647" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="647" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G647">
         <v>69.072459300000006</v>
       </c>
@@ -11501,7 +11658,7 @@
         <v>69.498494163100005</v>
       </c>
     </row>
-    <row r="648" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="648" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G648">
         <v>56.060118629999998</v>
       </c>
@@ -11509,7 +11666,7 @@
         <v>62.3558550483</v>
       </c>
     </row>
-    <row r="649" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="649" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G649">
         <v>51.77936382</v>
       </c>
@@ -11517,7 +11674,7 @@
         <v>54.118299754100001</v>
       </c>
     </row>
-    <row r="650" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="650" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G650">
         <v>85.328446369999995</v>
       </c>
@@ -11525,7 +11682,7 @@
         <v>84.818367043400002</v>
       </c>
     </row>
-    <row r="651" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G651">
         <v>71.003260510000004</v>
       </c>
@@ -11533,7 +11690,7 @@
         <v>72.120695302599998</v>
       </c>
     </row>
-    <row r="652" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="652" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G652">
         <v>71.448800469999995</v>
       </c>
@@ -11541,7 +11698,7 @@
         <v>71.947640811599996</v>
       </c>
     </row>
-    <row r="653" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G653">
         <v>71.962292719999994</v>
       </c>
@@ -11549,7 +11706,7 @@
         <v>75.413806950700007</v>
       </c>
     </row>
-    <row r="654" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G654">
         <v>83.326928319999993</v>
       </c>
@@ -11557,7 +11714,7 @@
         <v>83.981496646799997</v>
       </c>
     </row>
-    <row r="655" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="655" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G655">
         <v>91.790168309999999</v>
       </c>
@@ -11565,7 +11722,7 @@
         <v>93.028269458500006</v>
       </c>
     </row>
-    <row r="656" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="656" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G656">
         <v>51.663759499999998</v>
       </c>
@@ -11573,7 +11730,7 @@
         <v>55.442849248199998</v>
       </c>
     </row>
-    <row r="657" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="657" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G657">
         <v>39.85292587</v>
       </c>
@@ -11581,7 +11738,7 @@
         <v>42.723657735899998</v>
       </c>
     </row>
-    <row r="658" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="658" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G658">
         <v>70.748169840000003</v>
       </c>
@@ -11589,7 +11746,7 @@
         <v>71.468881370999995</v>
       </c>
     </row>
-    <row r="659" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="659" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G659">
         <v>74.000577359999994</v>
       </c>
@@ -11597,7 +11754,7 @@
         <v>73.826595278799999</v>
       </c>
     </row>
-    <row r="660" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="660" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G660">
         <v>39.406857590000001</v>
       </c>
@@ -11605,7 +11762,7 @@
         <v>44.860558368699998</v>
       </c>
     </row>
-    <row r="661" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="661" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G661">
         <v>86.670579919999994</v>
       </c>
@@ -11613,7 +11770,7 @@
         <v>86.359934070700007</v>
       </c>
     </row>
-    <row r="662" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="662" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G662">
         <v>76.155399029999998</v>
       </c>
@@ -11621,7 +11778,7 @@
         <v>78.639444625799996</v>
       </c>
     </row>
-    <row r="663" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="663" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G663">
         <v>81.528419659999997</v>
       </c>
@@ -11629,7 +11786,7 @@
         <v>84.314828739999996</v>
       </c>
     </row>
-    <row r="664" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="664" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G664">
         <v>63.786403720000003</v>
       </c>
@@ -11637,7 +11794,7 @@
         <v>63.831392384499999</v>
       </c>
     </row>
-    <row r="665" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="665" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G665">
         <v>71.818658540000001</v>
       </c>
@@ -11645,7 +11802,7 @@
         <v>73.501751353499998</v>
       </c>
     </row>
-    <row r="666" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="666" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G666">
         <v>66.141411390000002</v>
       </c>
@@ -11653,7 +11810,7 @@
         <v>70.004093993500007</v>
       </c>
     </row>
-    <row r="667" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="667" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G667">
         <v>78.399439009999995</v>
       </c>
@@ -11661,7 +11818,7 @@
         <v>80.266625941699999</v>
       </c>
     </row>
-    <row r="668" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="668" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G668">
         <v>119.6986594</v>
       </c>
@@ -11669,7 +11826,7 @@
         <v>116.190782931</v>
       </c>
     </row>
-    <row r="669" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="669" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G669">
         <v>83.773373120000002</v>
       </c>
@@ -11677,7 +11834,7 @@
         <v>84.085382584599998</v>
       </c>
     </row>
-    <row r="670" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="670" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G670">
         <v>65.905351569999993</v>
       </c>
@@ -11685,7 +11842,7 @@
         <v>67.888195823700002</v>
       </c>
     </row>
-    <row r="671" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="671" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G671">
         <v>66.713144909999997</v>
       </c>
@@ -11693,7 +11850,7 @@
         <v>67.529052053599997</v>
       </c>
     </row>
-    <row r="672" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="672" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G672">
         <v>94.536203560000004</v>
       </c>
@@ -11701,7 +11858,7 @@
         <v>95.050646104999998</v>
       </c>
     </row>
-    <row r="673" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="673" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G673">
         <v>67.475112260000003</v>
       </c>
@@ -11709,7 +11866,7 @@
         <v>70.956024772000006</v>
       </c>
     </row>
-    <row r="674" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="674" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G674">
         <v>60.504978719999997</v>
       </c>
@@ -11717,7 +11874,7 @@
         <v>64.366466148000001</v>
       </c>
     </row>
-    <row r="675" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="675" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G675">
         <v>64.484070149999994</v>
       </c>
@@ -11725,7 +11882,7 @@
         <v>66.585447656100001</v>
       </c>
     </row>
-    <row r="676" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="676" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G676">
         <v>84.318526629999994</v>
       </c>
@@ -11733,7 +11890,7 @@
         <v>85.363934897199996</v>
       </c>
     </row>
-    <row r="677" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="677" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G677">
         <v>50.98377464</v>
       </c>
@@ -11741,7 +11898,7 @@
         <v>51.841342457099998</v>
       </c>
     </row>
-    <row r="678" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="678" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G678">
         <v>57.92818716</v>
       </c>
@@ -11749,7 +11906,7 @@
         <v>62.235490858699997</v>
       </c>
     </row>
-    <row r="679" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="679" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G679">
         <v>64.826838550000005</v>
       </c>
@@ -11757,7 +11914,7 @@
         <v>63.515688742199998</v>
       </c>
     </row>
-    <row r="680" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="680" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G680">
         <v>75.894555679999996</v>
       </c>
@@ -11765,7 +11922,7 @@
         <v>76.597559613800001</v>
       </c>
     </row>
-    <row r="681" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="681" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G681">
         <v>78.721979279999999</v>
       </c>
@@ -11773,7 +11930,7 @@
         <v>78.242460194000003</v>
       </c>
     </row>
-    <row r="682" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="682" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G682">
         <v>62.365782860000003</v>
       </c>
@@ -11781,7 +11938,7 @@
         <v>63.041004761899998</v>
       </c>
     </row>
-    <row r="683" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G683">
         <v>72.305117409999994</v>
       </c>
@@ -11789,7 +11946,7 @@
         <v>73.509567309800005</v>
       </c>
     </row>
-    <row r="684" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="684" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G684">
         <v>71.033706769999995</v>
       </c>
@@ -11797,7 +11954,7 @@
         <v>71.841981813800004</v>
       </c>
     </row>
-    <row r="685" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="685" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G685">
         <v>67.815567560000005</v>
       </c>
@@ -11805,7 +11962,7 @@
         <v>70.443889469799998</v>
       </c>
     </row>
-    <row r="686" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="686" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G686">
         <v>65.034249189999997</v>
       </c>
@@ -11813,7 +11970,7 @@
         <v>66.527174492100002</v>
       </c>
     </row>
-    <row r="687" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="687" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G687">
         <v>68.281980200000007</v>
       </c>
@@ -11821,7 +11978,7 @@
         <v>69.056410619600001</v>
       </c>
     </row>
-    <row r="688" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="688" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G688">
         <v>78.916247389999995</v>
       </c>
@@ -11829,7 +11986,7 @@
         <v>77.645546341499994</v>
       </c>
     </row>
-    <row r="689" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="689" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G689">
         <v>45.10068459</v>
       </c>
@@ -11837,7 +11994,7 @@
         <v>48.579653183700003</v>
       </c>
     </row>
-    <row r="690" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="690" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G690">
         <v>71.396154370000005</v>
       </c>
@@ -11845,7 +12002,7 @@
         <v>74.671021669400005</v>
       </c>
     </row>
-    <row r="691" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="691" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G691">
         <v>87.080355580000003</v>
       </c>
@@ -11853,7 +12010,7 @@
         <v>88.757769840199998</v>
       </c>
     </row>
-    <row r="692" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="692" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G692">
         <v>63.129984520000001</v>
       </c>
@@ -11861,7 +12018,7 @@
         <v>66.334581999700006</v>
       </c>
     </row>
-    <row r="693" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="693" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G693">
         <v>57.957621279999998</v>
       </c>
@@ -11869,7 +12026,7 @@
         <v>59.051615280199997</v>
       </c>
     </row>
-    <row r="694" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="694" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G694">
         <v>41.790421760000001</v>
       </c>
@@ -11877,7 +12034,7 @@
         <v>42.864984234200001</v>
       </c>
     </row>
-    <row r="695" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="695" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G695">
         <v>109.5593952</v>
       </c>
@@ -11885,7 +12042,7 @@
         <v>106.63721095</v>
       </c>
     </row>
-    <row r="696" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="696" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G696">
         <v>78.218090000000004</v>
       </c>
@@ -11893,7 +12050,7 @@
         <v>79.277486182399997</v>
       </c>
     </row>
-    <row r="697" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="697" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G697">
         <v>52.31845646</v>
       </c>
@@ -11901,7 +12058,7 @@
         <v>54.198781778899999</v>
       </c>
     </row>
-    <row r="698" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="698" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G698">
         <v>87.058792159999996</v>
       </c>
@@ -11909,7 +12066,7 @@
         <v>87.988772811000004</v>
       </c>
     </row>
-    <row r="699" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="699" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G699">
         <v>71.296454359999998</v>
       </c>
@@ -11917,7 +12074,7 @@
         <v>73.569102379900002</v>
       </c>
     </row>
-    <row r="700" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="700" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G700">
         <v>71.990788769999995</v>
       </c>
@@ -11925,7 +12082,7 @@
         <v>72.946453260400006</v>
       </c>
     </row>
-    <row r="701" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="701" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G701">
         <v>55.496700660000002</v>
       </c>
@@ -11933,7 +12090,7 @@
         <v>58.910581384799997</v>
       </c>
     </row>
-    <row r="702" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="702" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G702">
         <v>50.990312080000002</v>
       </c>
@@ -11941,7 +12098,7 @@
         <v>50.572274065899997</v>
       </c>
     </row>
-    <row r="703" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="703" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G703">
         <v>68.409614270000006</v>
       </c>
@@ -11949,7 +12106,7 @@
         <v>72.870837398700004</v>
       </c>
     </row>
-    <row r="704" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="704" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G704">
         <v>38.571713889999998</v>
       </c>
@@ -11957,7 +12114,7 @@
         <v>42.353726237300002</v>
       </c>
     </row>
-    <row r="705" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="705" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G705">
         <v>56.86618361</v>
       </c>
@@ -11965,7 +12122,7 @@
         <v>57.361140837599997</v>
       </c>
     </row>
-    <row r="706" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="706" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G706">
         <v>84.882491680000001</v>
       </c>
@@ -11973,7 +12130,7 @@
         <v>85.040291299000003</v>
       </c>
     </row>
-    <row r="707" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="707" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G707">
         <v>56.997210860000003</v>
       </c>
@@ -11981,7 +12138,7 @@
         <v>61.872436757899997</v>
       </c>
     </row>
-    <row r="708" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="708" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G708">
         <v>88.788673279999998</v>
       </c>
@@ -11989,7 +12146,7 @@
         <v>91.510999033299996</v>
       </c>
     </row>
-    <row r="709" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="709" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G709">
         <v>61.129277170000002</v>
       </c>
@@ -11997,7 +12154,7 @@
         <v>64.049517730600002</v>
       </c>
     </row>
-    <row r="710" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="710" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G710">
         <v>45.078702020000001</v>
       </c>
@@ -12019,12 +12176,12 @@
       <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -12035,7 +12192,7 @@
         <v>53.357889620000002</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1">
         <v>1981</v>
       </c>
@@ -12043,7 +12200,7 @@
         <v>53.54723894</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>1982</v>
       </c>
@@ -12051,7 +12208,7 @@
         <v>55.98574095</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>1983</v>
       </c>
@@ -12059,7 +12216,7 @@
         <v>56.934273419999997</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>1984</v>
       </c>
@@ -12067,7 +12224,7 @@
         <v>58.455814099999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>1985</v>
       </c>
@@ -12075,7 +12232,7 @@
         <v>49.154997659999999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>1986</v>
       </c>
@@ -12083,7 +12240,7 @@
         <v>49.358336180000002</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>1987</v>
       </c>
@@ -12091,7 +12248,7 @@
         <v>50.699559350000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>1988</v>
       </c>
@@ -12099,7 +12256,7 @@
         <v>51.016039020000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>1989</v>
       </c>
@@ -12107,7 +12264,7 @@
         <v>47.63109334</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>1990</v>
       </c>
@@ -12115,7 +12272,7 @@
         <v>47.900954429999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>1991</v>
       </c>
@@ -12123,7 +12280,7 @@
         <v>47.969086300000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>1992</v>
       </c>
@@ -12131,7 +12288,7 @@
         <v>47.880748369999999</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>1993</v>
       </c>
@@ -12139,7 +12296,7 @@
         <v>48.39116181</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>1994</v>
       </c>
@@ -12147,7 +12304,7 @@
         <v>48.376103440000001</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>1995</v>
       </c>
@@ -12155,7 +12312,7 @@
         <v>48.874071989999997</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>1996</v>
       </c>
@@ -12163,7 +12320,7 @@
         <v>48.264870500000001</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>1997</v>
       </c>
@@ -12171,7 +12328,7 @@
         <v>47.128016379999998</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>1998</v>
       </c>
@@ -12179,7 +12336,7 @@
         <v>47.961689120000003</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>1999</v>
       </c>
@@ -12187,7 +12344,7 @@
         <v>48.333391319999997</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>2000</v>
       </c>
@@ -12195,7 +12352,7 @@
         <v>57.469760979999997</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>2001</v>
       </c>
@@ -12203,7 +12360,7 @@
         <v>66.868185920000002</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>2002</v>
       </c>
@@ -12211,7 +12368,7 @@
         <v>62.323352900000003</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
         <v>2003</v>
       </c>
@@ -12219,7 +12376,7 @@
         <v>60.906593209999997</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
         <v>2004</v>
       </c>
@@ -12227,7 +12384,7 @@
         <v>59.219026479999997</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <v>2005</v>
       </c>
@@ -12235,7 +12392,7 @@
         <v>58.888548720000003</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="1">
         <v>2006</v>
       </c>
@@ -12247,7 +12404,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="1">
         <v>2007</v>
       </c>
@@ -12259,7 +12416,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="1">
         <v>2008</v>
       </c>
@@ -12271,7 +12428,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="1">
         <v>2009</v>
       </c>
@@ -12283,7 +12440,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="1">
         <v>2010</v>
       </c>
@@ -12295,7 +12452,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="1">
         <v>2011</v>
       </c>
@@ -12307,7 +12464,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="1">
         <v>2012</v>
       </c>
@@ -12319,7 +12476,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="1">
         <v>2013</v>
       </c>
@@ -12331,7 +12488,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="1">
         <v>2014</v>
       </c>
@@ -12343,7 +12500,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="1">
         <v>2015</v>
       </c>
@@ -12351,7 +12508,7 @@
         <v>59.834943584599998</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="1">
         <v>2016</v>
       </c>
@@ -12359,7 +12516,7 @@
         <v>60.148707318600003</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="1">
         <v>2017</v>
       </c>
@@ -12367,7 +12524,7 @@
         <v>60.395389270300001</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="1">
         <v>2018</v>
       </c>
@@ -12384,18 +12541,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE29C156-4A4D-4FCD-B5EA-26A4F636A219}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:D39"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -12406,7 +12563,7 @@
         <v>49.118239510000002</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1">
         <v>1981</v>
       </c>
@@ -12414,7 +12571,7 @@
         <v>49.272845420000003</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1">
         <v>1982</v>
       </c>
@@ -12422,7 +12579,7 @@
         <v>50.407208699999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>1983</v>
       </c>
@@ -12430,7 +12587,7 @@
         <v>51.748305160000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>1984</v>
       </c>
@@ -12438,7 +12595,7 @@
         <v>52.717509939999999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>1985</v>
       </c>
@@ -12446,7 +12603,7 @@
         <v>55.196083199999997</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1">
         <v>1986</v>
       </c>
@@ -12454,7 +12611,7 @@
         <v>56.66535047</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" s="1">
         <v>1987</v>
       </c>
@@ -12462,7 +12619,7 @@
         <v>57.625068089999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" s="1">
         <v>1988</v>
       </c>
@@ -12470,7 +12627,7 @@
         <v>59.650040179999998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" s="1">
         <v>1989</v>
       </c>
@@ -12478,7 +12635,7 @@
         <v>59.795259649999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" s="1">
         <v>1990</v>
       </c>
@@ -12486,7 +12643,7 @@
         <v>60.423205269999997</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B12" s="1">
         <v>1991</v>
       </c>
@@ -12494,7 +12651,7 @@
         <v>62.612683599999997</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1">
         <v>1992</v>
       </c>
@@ -12502,7 +12659,7 @@
         <v>62.969012280000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>1993</v>
       </c>
@@ -12510,7 +12667,7 @@
         <v>66.979008789999995</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>1994</v>
       </c>
@@ -12518,7 +12675,7 @@
         <v>67.450728139999995</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>1995</v>
       </c>
@@ -12526,7 +12683,7 @@
         <v>70.335997030000001</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>1996</v>
       </c>
@@ -12534,7 +12691,7 @@
         <v>70.606433139999993</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>1997</v>
       </c>
@@ -12542,7 +12699,7 @@
         <v>72.400820240000002</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>1998</v>
       </c>
@@ -12550,7 +12707,7 @@
         <v>75.689699779999998</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>1999</v>
       </c>
@@ -12558,7 +12715,7 @@
         <v>77.926299400000005</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>2000</v>
       </c>
@@ -12566,7 +12723,7 @@
         <v>82.525016600000001</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>2001</v>
       </c>
@@ -12574,7 +12731,7 @@
         <v>82.760003049999995</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>2002</v>
       </c>
@@ -12582,7 +12739,7 @@
         <v>84.161486710000005</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="1">
         <v>2003</v>
       </c>
@@ -12590,7 +12747,7 @@
         <v>84.97510364</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B25" s="1">
         <v>2004</v>
       </c>
@@ -12598,7 +12755,7 @@
         <v>83.834052499999999</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B26" s="1">
         <v>2005</v>
       </c>
@@ -12606,143 +12763,154 @@
         <v>86.1676085</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="1">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B28">
         <v>2006</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>87.097716879999993</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>85.814999256899995</v>
       </c>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="1">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B29">
         <v>2007</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>87.040094789999998</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>87.477532944800004</v>
       </c>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="1">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B30">
         <v>2008</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>86.523781360000001</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>88.412597112100002</v>
       </c>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="1">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B31">
         <v>2009</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>90.802562710000004</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>89.4094093665</v>
       </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="1">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B32">
         <v>2010</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>89.46588534</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>90.919106581500003</v>
       </c>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="1">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33">
         <v>2011</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>92.791826080000007</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>91.678645920099996</v>
       </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="1">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34">
         <v>2012</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>92.205752529999998</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>92.948687269900006</v>
       </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="1">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35">
         <v>2013</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>94.435521039999998</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>93.815923224299993</v>
       </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="1">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36">
         <v>2014</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>95.963684439999994</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>94.955228652900004</v>
       </c>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="1">
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37">
         <v>2015</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>95.932165340799997</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="1">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38">
         <v>2016</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>97.239110053700003</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="1">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39">
         <v>2017</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>97.903762860900002</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="1">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B40">
         <v>2018</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>98.947820535000005</v>
       </c>
     </row>

--- a/results/MSE_LinearRegression.xlsx
+++ b/results/MSE_LinearRegression.xlsx
@@ -1622,6 +1622,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20201377952755908"/>
+          <c:y val="0.20833333333333334"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4550,16 +4558,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>212725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>517525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>60325</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12543,8 +12551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE29C156-4A4D-4FCD-B5EA-26A4F636A219}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
